--- a/resources/nurit.xlsx
+++ b/resources/nurit.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotemwald/PycharmProjects/FinalProject/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9882475-D1FD-1245-84B4-A091A8601D4A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Room_53" sheetId="1" r:id="rId1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="650">
   <si>
     <t xml:space="preserve">TimeStamp </t>
   </si>
@@ -1972,13 +1978,16 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>MAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2615,7 +2624,6 @@
     <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2639,6 +2647,7 @@
     <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2675,7 +2684,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3017,41 +3032,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG453"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.5" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="111.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="111.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5" style="2" customWidth="1"/>
-    <col min="11" max="17" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
-    <col min="19" max="20" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.875" style="2" customWidth="1"/>
+    <col min="11" max="17" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" style="2" customWidth="1"/>
+    <col min="19" max="20" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.83203125" style="2" customWidth="1"/>
     <col min="22" max="22" width="4.5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.125" style="2"/>
+    <col min="23" max="23" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3097,7 @@
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
     </row>
-    <row r="2" spans="1:20" customFormat="1" hidden="1">
+    <row r="2" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3110,7 +3125,7 @@
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:20" customFormat="1" ht="14.25" hidden="1">
+    <row r="3" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3138,7 +3153,7 @@
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:20" customFormat="1" hidden="1">
+    <row r="4" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3181,7 @@
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" customFormat="1">
+    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3194,7 +3209,7 @@
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" customFormat="1" hidden="1">
+    <row r="6" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -3222,7 +3237,7 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:20" customFormat="1" hidden="1">
+    <row r="7" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3250,7 +3265,7 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" customFormat="1">
+    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3278,7 +3293,7 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" customFormat="1" hidden="1">
+    <row r="9" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3306,7 +3321,7 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="1:20" customFormat="1">
+    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3334,7 +3349,7 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" customFormat="1" ht="14.25" hidden="1">
+    <row r="11" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3362,7 +3377,7 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" hidden="1">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3387,7 +3402,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -3412,7 +3427,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20" customFormat="1" hidden="1">
+    <row r="14" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -3440,7 +3455,7 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" customFormat="1" hidden="1">
+    <row r="15" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3468,7 +3483,7 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" customFormat="1">
+    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3498,7 +3513,7 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:20" customFormat="1" hidden="1">
+    <row r="17" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -3526,7 +3541,7 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" customFormat="1">
+    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -3554,7 +3569,7 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" customFormat="1">
+    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -3582,7 +3597,7 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
     </row>
-    <row r="20" spans="1:20" customFormat="1" hidden="1">
+    <row r="20" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -3610,7 +3625,7 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="1:20" customFormat="1">
+    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -3638,7 +3653,7 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:20" customFormat="1" hidden="1">
+    <row r="22" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3666,7 +3681,7 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="1:20" customFormat="1">
+    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3694,7 +3709,7 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:20" customFormat="1" hidden="1">
+    <row r="24" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -3722,7 +3737,7 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="1:20" customFormat="1">
+    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -3750,7 +3765,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="1:20" hidden="1">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -3778,7 +3793,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -3806,7 +3821,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="1:20" customFormat="1" hidden="1">
+    <row r="28" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -3834,7 +3849,7 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
     </row>
-    <row r="29" spans="1:20" hidden="1">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -3859,7 +3874,7 @@
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" customFormat="1" hidden="1">
+    <row r="30" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
@@ -3887,7 +3902,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" spans="1:20" customFormat="1">
+    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
@@ -3915,7 +3930,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" spans="1:20" customFormat="1">
+    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
@@ -3943,7 +3958,7 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
@@ -3971,7 +3986,7 @@
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
     </row>
-    <row r="34" spans="1:20" customFormat="1" hidden="1">
+    <row r="34" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
@@ -3999,7 +4014,7 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="1:20" customFormat="1">
+    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>57</v>
       </c>
@@ -4010,7 +4025,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -4029,7 +4044,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="1:20" customFormat="1" hidden="1">
+    <row r="36" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>59</v>
       </c>
@@ -4057,7 +4072,7 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
     </row>
-    <row r="37" spans="1:20" customFormat="1">
+    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>60</v>
       </c>
@@ -4087,7 +4102,7 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
     </row>
-    <row r="38" spans="1:20" customFormat="1" hidden="1">
+    <row r="38" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
@@ -4115,7 +4130,7 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
     </row>
-    <row r="39" spans="1:20" hidden="1">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>63</v>
       </c>
@@ -4140,7 +4155,7 @@
       <c r="S39" s="19"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -4168,7 +4183,7 @@
       <c r="S40" s="19"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41" spans="1:20" hidden="1">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4193,7 +4208,7 @@
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
     </row>
-    <row r="42" spans="1:20" customFormat="1">
+    <row r="42" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>67</v>
       </c>
@@ -4223,7 +4238,7 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
@@ -4251,7 +4266,7 @@
       <c r="S43" s="19"/>
       <c r="T43" s="19"/>
     </row>
-    <row r="44" spans="1:20" customFormat="1" hidden="1">
+    <row r="44" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
@@ -4279,7 +4294,7 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
     </row>
-    <row r="45" spans="1:20" customFormat="1">
+    <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -4309,7 +4324,7 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
     </row>
-    <row r="46" spans="1:20" customFormat="1" hidden="1">
+    <row r="46" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>73</v>
       </c>
@@ -4337,7 +4352,7 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
     </row>
-    <row r="47" spans="1:20" customFormat="1">
+    <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>74</v>
       </c>
@@ -4365,7 +4380,7 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
     </row>
-    <row r="48" spans="1:20" customFormat="1" hidden="1">
+    <row r="48" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>76</v>
       </c>
@@ -4395,7 +4410,7 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
     </row>
-    <row r="49" spans="1:21" customFormat="1" hidden="1">
+    <row r="49" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>78</v>
       </c>
@@ -4425,7 +4440,7 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
     </row>
-    <row r="50" spans="1:21" customFormat="1" hidden="1">
+    <row r="50" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>80</v>
       </c>
@@ -4455,7 +4470,7 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
     </row>
-    <row r="51" spans="1:21" customFormat="1" hidden="1">
+    <row r="51" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>82</v>
       </c>
@@ -4485,7 +4500,7 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
     </row>
-    <row r="52" spans="1:21" customFormat="1" hidden="1">
+    <row r="52" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>84</v>
       </c>
@@ -4515,7 +4530,7 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
     </row>
-    <row r="53" spans="1:21" customFormat="1" hidden="1">
+    <row r="53" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
@@ -4545,7 +4560,7 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
     </row>
-    <row r="54" spans="1:21" customFormat="1" hidden="1">
+    <row r="54" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>86</v>
       </c>
@@ -4575,7 +4590,7 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
     </row>
-    <row r="55" spans="1:21" customFormat="1" hidden="1">
+    <row r="55" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>87</v>
       </c>
@@ -4605,7 +4620,7 @@
       <c r="S55" s="20"/>
       <c r="T55" s="20"/>
     </row>
-    <row r="56" spans="1:21" customFormat="1" hidden="1">
+    <row r="56" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>88</v>
       </c>
@@ -4635,7 +4650,7 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
     </row>
-    <row r="57" spans="1:21" customFormat="1" hidden="1">
+    <row r="57" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>89</v>
       </c>
@@ -4665,7 +4680,7 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
     </row>
-    <row r="58" spans="1:21" customFormat="1">
+    <row r="58" spans="1:21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>90</v>
       </c>
@@ -4676,7 +4691,7 @@
         <v>91</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
@@ -4696,7 +4711,7 @@
       <c r="T58" s="25"/>
       <c r="U58" s="6"/>
     </row>
-    <row r="59" spans="1:21" customFormat="1" hidden="1">
+    <row r="59" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>92</v>
       </c>
@@ -4726,7 +4741,7 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
     </row>
-    <row r="60" spans="1:21" customFormat="1" hidden="1">
+    <row r="60" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>93</v>
       </c>
@@ -4756,7 +4771,7 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
     </row>
-    <row r="61" spans="1:21" customFormat="1" hidden="1">
+    <row r="61" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>94</v>
       </c>
@@ -4784,7 +4799,7 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
     </row>
-    <row r="62" spans="1:21" hidden="1">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -4812,7 +4827,7 @@
       <c r="S62" s="19"/>
       <c r="T62" s="19"/>
     </row>
-    <row r="63" spans="1:21" customFormat="1" hidden="1">
+    <row r="63" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>96</v>
       </c>
@@ -4840,7 +4855,7 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>97</v>
       </c>
@@ -4851,7 +4866,7 @@
         <v>98</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
@@ -4870,7 +4885,7 @@
       <c r="S64" s="19"/>
       <c r="T64" s="19"/>
     </row>
-    <row r="65" spans="1:20" s="36" customFormat="1">
+    <row r="65" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="26" t="s">
         <v>99</v>
       </c>
@@ -4881,7 +4896,7 @@
         <v>100</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
@@ -4893,7 +4908,7 @@
       <c r="L65" s="27"/>
       <c r="M65" s="27"/>
     </row>
-    <row r="66" spans="1:20" customFormat="1" hidden="1">
+    <row r="66" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>101</v>
       </c>
@@ -4921,7 +4936,7 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
     </row>
-    <row r="67" spans="1:20" hidden="1">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>103</v>
       </c>
@@ -4946,7 +4961,7 @@
       <c r="S67" s="19"/>
       <c r="T67" s="19"/>
     </row>
-    <row r="68" spans="1:20" customFormat="1" hidden="1">
+    <row r="68" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>104</v>
       </c>
@@ -4974,7 +4989,7 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
     </row>
-    <row r="69" spans="1:20" hidden="1">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>105</v>
       </c>
@@ -4999,7 +5014,7 @@
       <c r="S69" s="19"/>
       <c r="T69" s="19"/>
     </row>
-    <row r="70" spans="1:20" customFormat="1" hidden="1">
+    <row r="70" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>106</v>
       </c>
@@ -5027,7 +5042,7 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
     </row>
-    <row r="71" spans="1:20" customFormat="1">
+    <row r="71" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>107</v>
       </c>
@@ -5038,7 +5053,7 @@
         <v>108</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -5057,7 +5072,7 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
     </row>
-    <row r="72" spans="1:20" customFormat="1" hidden="1">
+    <row r="72" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>109</v>
       </c>
@@ -5085,7 +5100,7 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
@@ -5096,7 +5111,7 @@
         <v>111</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G73" s="29"/>
       <c r="H73" s="19"/>
@@ -5113,7 +5128,7 @@
       <c r="S73" s="19"/>
       <c r="T73" s="19"/>
     </row>
-    <row r="74" spans="1:20" hidden="1">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>112</v>
       </c>
@@ -5139,7 +5154,7 @@
       <c r="S74" s="19"/>
       <c r="T74" s="19"/>
     </row>
-    <row r="75" spans="1:20" customFormat="1">
+    <row r="75" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>113</v>
       </c>
@@ -5150,7 +5165,7 @@
         <v>114</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -5169,7 +5184,7 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
     </row>
-    <row r="76" spans="1:20" customFormat="1">
+    <row r="76" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>115</v>
       </c>
@@ -5180,7 +5195,7 @@
         <v>116</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -5199,7 +5214,7 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>117</v>
       </c>
@@ -5224,7 +5239,7 @@
       <c r="S77" s="19"/>
       <c r="T77" s="19"/>
     </row>
-    <row r="78" spans="1:20" hidden="1">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>119</v>
       </c>
@@ -5249,7 +5264,7 @@
       <c r="S78" s="19"/>
       <c r="T78" s="19"/>
     </row>
-    <row r="79" spans="1:20" customFormat="1" hidden="1">
+    <row r="79" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>120</v>
       </c>
@@ -5279,7 +5294,7 @@
       <c r="S79" s="20"/>
       <c r="T79" s="20"/>
     </row>
-    <row r="80" spans="1:20" customFormat="1" hidden="1">
+    <row r="80" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>121</v>
       </c>
@@ -5307,7 +5322,7 @@
       <c r="S80" s="20"/>
       <c r="T80" s="20"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>122</v>
       </c>
@@ -5318,7 +5333,7 @@
         <v>123</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
@@ -5337,7 +5352,7 @@
       <c r="S81" s="19"/>
       <c r="T81" s="19"/>
     </row>
-    <row r="82" spans="1:20" customFormat="1">
+    <row r="82" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>124</v>
       </c>
@@ -5348,7 +5363,7 @@
         <v>125</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
@@ -5367,7 +5382,7 @@
       <c r="S82" s="20"/>
       <c r="T82" s="20"/>
     </row>
-    <row r="83" spans="1:20" customFormat="1" hidden="1">
+    <row r="83" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>126</v>
       </c>
@@ -5395,7 +5410,7 @@
       <c r="S83" s="20"/>
       <c r="T83" s="20"/>
     </row>
-    <row r="84" spans="1:20" customFormat="1" hidden="1">
+    <row r="84" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>127</v>
       </c>
@@ -5423,7 +5438,7 @@
       <c r="S84" s="20"/>
       <c r="T84" s="20"/>
     </row>
-    <row r="85" spans="1:20" hidden="1">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>128</v>
       </c>
@@ -5448,7 +5463,7 @@
       <c r="S85" s="19"/>
       <c r="T85" s="19"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>129</v>
       </c>
@@ -5476,7 +5491,7 @@
       <c r="S86" s="19"/>
       <c r="T86" s="19"/>
     </row>
-    <row r="87" spans="1:20" customFormat="1" hidden="1">
+    <row r="87" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>131</v>
       </c>
@@ -5504,7 +5519,7 @@
       <c r="S87" s="20"/>
       <c r="T87" s="20"/>
     </row>
-    <row r="88" spans="1:20" customFormat="1">
+    <row r="88" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>132</v>
       </c>
@@ -5515,7 +5530,7 @@
         <v>133</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -5534,7 +5549,7 @@
       <c r="S88" s="20"/>
       <c r="T88" s="20"/>
     </row>
-    <row r="89" spans="1:20" customFormat="1">
+    <row r="89" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>134</v>
       </c>
@@ -5545,7 +5560,7 @@
         <v>135</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
@@ -5564,7 +5579,7 @@
       <c r="S89" s="20"/>
       <c r="T89" s="20"/>
     </row>
-    <row r="90" spans="1:20" customFormat="1" hidden="1">
+    <row r="90" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>136</v>
       </c>
@@ -5592,7 +5607,7 @@
       <c r="S90" s="20"/>
       <c r="T90" s="20"/>
     </row>
-    <row r="91" spans="1:20" customFormat="1" hidden="1">
+    <row r="91" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>137</v>
       </c>
@@ -5620,7 +5635,7 @@
       <c r="S91" s="20"/>
       <c r="T91" s="20"/>
     </row>
-    <row r="92" spans="1:20" customFormat="1" hidden="1">
+    <row r="92" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>138</v>
       </c>
@@ -5648,7 +5663,7 @@
       <c r="S92" s="20"/>
       <c r="T92" s="20"/>
     </row>
-    <row r="93" spans="1:20" customFormat="1" hidden="1">
+    <row r="93" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>139</v>
       </c>
@@ -5676,7 +5691,7 @@
       <c r="S93" s="20"/>
       <c r="T93" s="20"/>
     </row>
-    <row r="94" spans="1:20" customFormat="1">
+    <row r="94" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>140</v>
       </c>
@@ -5687,7 +5702,7 @@
         <v>141</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -5706,7 +5721,7 @@
       <c r="S94" s="20"/>
       <c r="T94" s="20"/>
     </row>
-    <row r="95" spans="1:20" customFormat="1" hidden="1">
+    <row r="95" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>142</v>
       </c>
@@ -5734,7 +5749,7 @@
       <c r="S95" s="20"/>
       <c r="T95" s="20"/>
     </row>
-    <row r="96" spans="1:20" hidden="1">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>143</v>
       </c>
@@ -5759,7 +5774,7 @@
       <c r="S96" s="19"/>
       <c r="T96" s="19"/>
     </row>
-    <row r="97" spans="1:20" customFormat="1">
+    <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
         <v>144</v>
       </c>
@@ -5787,7 +5802,7 @@
       <c r="S97" s="20"/>
       <c r="T97" s="20"/>
     </row>
-    <row r="98" spans="1:20" customFormat="1">
+    <row r="98" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>146</v>
       </c>
@@ -5798,7 +5813,7 @@
         <v>147</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -5817,7 +5832,7 @@
       <c r="S98" s="20"/>
       <c r="T98" s="20"/>
     </row>
-    <row r="99" spans="1:20" customFormat="1" hidden="1">
+    <row r="99" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>148</v>
       </c>
@@ -5845,7 +5860,7 @@
       <c r="S99" s="20"/>
       <c r="T99" s="20"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>149</v>
       </c>
@@ -5856,7 +5871,7 @@
         <v>150</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
@@ -5873,7 +5888,7 @@
       <c r="S100" s="19"/>
       <c r="T100" s="19"/>
     </row>
-    <row r="101" spans="1:20" customFormat="1">
+    <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>151</v>
       </c>
@@ -5903,7 +5918,7 @@
       <c r="S101" s="20"/>
       <c r="T101" s="20"/>
     </row>
-    <row r="102" spans="1:20" customFormat="1" hidden="1">
+    <row r="102" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>153</v>
       </c>
@@ -5931,7 +5946,7 @@
       <c r="S102" s="20"/>
       <c r="T102" s="20"/>
     </row>
-    <row r="103" spans="1:20" customFormat="1">
+    <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>154</v>
       </c>
@@ -5942,7 +5957,7 @@
         <v>155</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -5961,7 +5976,7 @@
       <c r="S103" s="20"/>
       <c r="T103" s="20"/>
     </row>
-    <row r="104" spans="1:20" customFormat="1" hidden="1">
+    <row r="104" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>156</v>
       </c>
@@ -5989,7 +6004,7 @@
       <c r="S104" s="20"/>
       <c r="T104" s="20"/>
     </row>
-    <row r="105" spans="1:20" customFormat="1" hidden="1">
+    <row r="105" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <v>157</v>
       </c>
@@ -6017,7 +6032,7 @@
       <c r="S105" s="20"/>
       <c r="T105" s="20"/>
     </row>
-    <row r="106" spans="1:20" customFormat="1">
+    <row r="106" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>158</v>
       </c>
@@ -6028,7 +6043,7 @@
         <v>159</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -6047,7 +6062,7 @@
       <c r="S106" s="20"/>
       <c r="T106" s="20"/>
     </row>
-    <row r="107" spans="1:20" customFormat="1" hidden="1">
+    <row r="107" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>160</v>
       </c>
@@ -6077,7 +6092,7 @@
       <c r="S107" s="20"/>
       <c r="T107" s="20"/>
     </row>
-    <row r="108" spans="1:20" customFormat="1" hidden="1">
+    <row r="108" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
         <v>161</v>
       </c>
@@ -6107,7 +6122,7 @@
       <c r="S108" s="20"/>
       <c r="T108" s="20"/>
     </row>
-    <row r="109" spans="1:20" customFormat="1" hidden="1">
+    <row r="109" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
         <v>162</v>
       </c>
@@ -6137,7 +6152,7 @@
       <c r="S109" s="20"/>
       <c r="T109" s="20"/>
     </row>
-    <row r="110" spans="1:20" customFormat="1" hidden="1">
+    <row r="110" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>163</v>
       </c>
@@ -6165,7 +6180,7 @@
       <c r="S110" s="20"/>
       <c r="T110" s="20"/>
     </row>
-    <row r="111" spans="1:20" customFormat="1" hidden="1">
+    <row r="111" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
         <v>164</v>
       </c>
@@ -6193,7 +6208,7 @@
       <c r="S111" s="20"/>
       <c r="T111" s="20"/>
     </row>
-    <row r="112" spans="1:20" s="20" customFormat="1">
+    <row r="112" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="26" t="s">
         <v>165</v>
       </c>
@@ -6204,7 +6219,7 @@
         <v>166</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E112" s="27"/>
       <c r="F112" s="27"/>
@@ -6217,7 +6232,7 @@
       <c r="M112" s="27"/>
       <c r="N112" s="27"/>
     </row>
-    <row r="113" spans="1:20" s="20" customFormat="1" hidden="1">
+    <row r="113" spans="1:20" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="26" t="s">
         <v>167</v>
       </c>
@@ -6235,7 +6250,7 @@
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
     </row>
-    <row r="114" spans="1:20" s="20" customFormat="1">
+    <row r="114" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="26" t="s">
         <v>168</v>
       </c>
@@ -6246,7 +6261,7 @@
         <v>643</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E114" s="27"/>
       <c r="F114" s="27"/>
@@ -6259,7 +6274,7 @@
       <c r="M114" s="27"/>
       <c r="N114" s="27"/>
     </row>
-    <row r="115" spans="1:20" s="20" customFormat="1">
+    <row r="115" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="24" t="s">
         <v>169</v>
       </c>
@@ -6281,7 +6296,7 @@
       <c r="M115" s="25"/>
       <c r="N115" s="25"/>
     </row>
-    <row r="116" spans="1:20" s="20" customFormat="1" hidden="1">
+    <row r="116" spans="1:20" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="24" t="s">
         <v>171</v>
       </c>
@@ -6299,7 +6314,7 @@
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
     </row>
-    <row r="117" spans="1:20" customFormat="1" hidden="1">
+    <row r="117" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>172</v>
       </c>
@@ -6327,7 +6342,7 @@
       <c r="S117" s="20"/>
       <c r="T117" s="20"/>
     </row>
-    <row r="118" spans="1:20" customFormat="1">
+    <row r="118" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>173</v>
       </c>
@@ -6355,7 +6370,7 @@
       <c r="S118" s="20"/>
       <c r="T118" s="20"/>
     </row>
-    <row r="119" spans="1:20" customFormat="1">
+    <row r="119" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>175</v>
       </c>
@@ -6366,7 +6381,7 @@
         <v>176</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -6385,7 +6400,7 @@
       <c r="S119" s="20"/>
       <c r="T119" s="20"/>
     </row>
-    <row r="120" spans="1:20" customFormat="1" hidden="1">
+    <row r="120" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
         <v>177</v>
       </c>
@@ -6413,7 +6428,7 @@
       <c r="S120" s="20"/>
       <c r="T120" s="20"/>
     </row>
-    <row r="121" spans="1:20" customFormat="1">
+    <row r="121" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
         <v>178</v>
       </c>
@@ -6441,7 +6456,7 @@
       <c r="S121" s="20"/>
       <c r="T121" s="20"/>
     </row>
-    <row r="122" spans="1:20" hidden="1">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>180</v>
       </c>
@@ -6466,7 +6481,7 @@
       <c r="S122" s="19"/>
       <c r="T122" s="19"/>
     </row>
-    <row r="123" spans="1:20" customFormat="1" hidden="1">
+    <row r="123" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>181</v>
       </c>
@@ -6494,7 +6509,7 @@
       <c r="S123" s="20"/>
       <c r="T123" s="20"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>182</v>
       </c>
@@ -6505,7 +6520,7 @@
         <v>183</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
@@ -6522,7 +6537,7 @@
       <c r="S124" s="19"/>
       <c r="T124" s="19"/>
     </row>
-    <row r="125" spans="1:20" customFormat="1" hidden="1">
+    <row r="125" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
         <v>184</v>
       </c>
@@ -6550,7 +6565,7 @@
       <c r="S125" s="20"/>
       <c r="T125" s="20"/>
     </row>
-    <row r="126" spans="1:20" customFormat="1">
+    <row r="126" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
         <v>185</v>
       </c>
@@ -6561,7 +6576,7 @@
         <v>186</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -6580,7 +6595,7 @@
       <c r="S126" s="20"/>
       <c r="T126" s="20"/>
     </row>
-    <row r="127" spans="1:20" customFormat="1" hidden="1">
+    <row r="127" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>187</v>
       </c>
@@ -6608,7 +6623,7 @@
       <c r="S127" s="20"/>
       <c r="T127" s="20"/>
     </row>
-    <row r="128" spans="1:20" customFormat="1" hidden="1">
+    <row r="128" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
         <v>188</v>
       </c>
@@ -6636,7 +6651,7 @@
       <c r="S128" s="20"/>
       <c r="T128" s="20"/>
     </row>
-    <row r="129" spans="1:20" customFormat="1">
+    <row r="129" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>189</v>
       </c>
@@ -6647,7 +6662,7 @@
         <v>190</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -6666,7 +6681,7 @@
       <c r="S129" s="20"/>
       <c r="T129" s="20"/>
     </row>
-    <row r="130" spans="1:20" customFormat="1" hidden="1">
+    <row r="130" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
         <v>191</v>
       </c>
@@ -6694,7 +6709,7 @@
       <c r="S130" s="20"/>
       <c r="T130" s="20"/>
     </row>
-    <row r="131" spans="1:20" customFormat="1">
+    <row r="131" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
         <v>192</v>
       </c>
@@ -6705,7 +6720,7 @@
         <v>193</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -6724,7 +6739,7 @@
       <c r="S131" s="20"/>
       <c r="T131" s="20"/>
     </row>
-    <row r="132" spans="1:20" customFormat="1" hidden="1">
+    <row r="132" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
         <v>194</v>
       </c>
@@ -6752,7 +6767,7 @@
       <c r="S132" s="20"/>
       <c r="T132" s="20"/>
     </row>
-    <row r="133" spans="1:20" customFormat="1">
+    <row r="133" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
         <v>195</v>
       </c>
@@ -6780,7 +6795,7 @@
       <c r="S133" s="20"/>
       <c r="T133" s="20"/>
     </row>
-    <row r="134" spans="1:20" customFormat="1" hidden="1">
+    <row r="134" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
         <v>197</v>
       </c>
@@ -6808,7 +6823,7 @@
       <c r="S134" s="20"/>
       <c r="T134" s="20"/>
     </row>
-    <row r="135" spans="1:20" hidden="1">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>198</v>
       </c>
@@ -6833,7 +6848,7 @@
       <c r="S135" s="19"/>
       <c r="T135" s="19"/>
     </row>
-    <row r="136" spans="1:20" customFormat="1" hidden="1">
+    <row r="136" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
         <v>199</v>
       </c>
@@ -6861,7 +6876,7 @@
       <c r="S136" s="20"/>
       <c r="T136" s="20"/>
     </row>
-    <row r="137" spans="1:20" hidden="1">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>200</v>
       </c>
@@ -6886,7 +6901,7 @@
       <c r="S137" s="19"/>
       <c r="T137" s="19"/>
     </row>
-    <row r="138" spans="1:20" hidden="1">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>201</v>
       </c>
@@ -6911,7 +6926,7 @@
       <c r="S138" s="19"/>
       <c r="T138" s="19"/>
     </row>
-    <row r="139" spans="1:20" hidden="1">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>202</v>
       </c>
@@ -6936,7 +6951,7 @@
       <c r="S139" s="19"/>
       <c r="T139" s="19"/>
     </row>
-    <row r="140" spans="1:20" hidden="1">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>203</v>
       </c>
@@ -6961,7 +6976,7 @@
       <c r="S140" s="19"/>
       <c r="T140" s="19"/>
     </row>
-    <row r="141" spans="1:20" hidden="1">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>204</v>
       </c>
@@ -6986,7 +7001,7 @@
       <c r="S141" s="19"/>
       <c r="T141" s="19"/>
     </row>
-    <row r="142" spans="1:20" hidden="1">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>205</v>
       </c>
@@ -7011,7 +7026,7 @@
       <c r="S142" s="19"/>
       <c r="T142" s="19"/>
     </row>
-    <row r="143" spans="1:20" hidden="1">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>206</v>
       </c>
@@ -7036,7 +7051,7 @@
       <c r="S143" s="19"/>
       <c r="T143" s="19"/>
     </row>
-    <row r="144" spans="1:20" hidden="1">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>207</v>
       </c>
@@ -7061,7 +7076,7 @@
       <c r="S144" s="19"/>
       <c r="T144" s="19"/>
     </row>
-    <row r="145" spans="1:20" hidden="1">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>208</v>
       </c>
@@ -7086,7 +7101,7 @@
       <c r="S145" s="19"/>
       <c r="T145" s="19"/>
     </row>
-    <row r="146" spans="1:20" customFormat="1" hidden="1">
+    <row r="146" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>209</v>
       </c>
@@ -7114,7 +7129,7 @@
       <c r="S146" s="20"/>
       <c r="T146" s="20"/>
     </row>
-    <row r="147" spans="1:20" customFormat="1" hidden="1">
+    <row r="147" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>210</v>
       </c>
@@ -7142,7 +7157,7 @@
       <c r="S147" s="20"/>
       <c r="T147" s="20"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>211</v>
       </c>
@@ -7153,7 +7168,7 @@
         <v>212</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G148" s="19"/>
       <c r="H148" s="19"/>
@@ -7170,7 +7185,7 @@
       <c r="S148" s="19"/>
       <c r="T148" s="19"/>
     </row>
-    <row r="149" spans="1:20" customFormat="1" hidden="1">
+    <row r="149" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
         <v>213</v>
       </c>
@@ -7198,7 +7213,7 @@
       <c r="S149" s="20"/>
       <c r="T149" s="20"/>
     </row>
-    <row r="150" spans="1:20" customFormat="1">
+    <row r="150" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>214</v>
       </c>
@@ -7209,7 +7224,7 @@
         <v>215</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
@@ -7228,7 +7243,7 @@
       <c r="S150" s="20"/>
       <c r="T150" s="20"/>
     </row>
-    <row r="151" spans="1:20" customFormat="1" hidden="1">
+    <row r="151" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>216</v>
       </c>
@@ -7256,7 +7271,7 @@
       <c r="S151" s="20"/>
       <c r="T151" s="20"/>
     </row>
-    <row r="152" spans="1:20" customFormat="1">
+    <row r="152" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>217</v>
       </c>
@@ -7284,7 +7299,7 @@
       <c r="S152" s="20"/>
       <c r="T152" s="20"/>
     </row>
-    <row r="153" spans="1:20" customFormat="1">
+    <row r="153" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
         <v>219</v>
       </c>
@@ -7312,7 +7327,7 @@
       <c r="S153" s="20"/>
       <c r="T153" s="20"/>
     </row>
-    <row r="154" spans="1:20" hidden="1">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>221</v>
       </c>
@@ -7337,7 +7352,7 @@
       <c r="S154" s="19"/>
       <c r="T154" s="19"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>222</v>
       </c>
@@ -7348,7 +7363,7 @@
         <v>223</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
@@ -7365,7 +7380,7 @@
       <c r="S155" s="19"/>
       <c r="T155" s="19"/>
     </row>
-    <row r="156" spans="1:20" hidden="1">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>224</v>
       </c>
@@ -7390,7 +7405,7 @@
       <c r="S156" s="19"/>
       <c r="T156" s="19"/>
     </row>
-    <row r="157" spans="1:20" customFormat="1" hidden="1">
+    <row r="157" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
         <v>225</v>
       </c>
@@ -7418,7 +7433,7 @@
       <c r="S157" s="20"/>
       <c r="T157" s="20"/>
     </row>
-    <row r="158" spans="1:20" customFormat="1">
+    <row r="158" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
         <v>226</v>
       </c>
@@ -7446,7 +7461,7 @@
       <c r="S158" s="20"/>
       <c r="T158" s="20"/>
     </row>
-    <row r="159" spans="1:20" customFormat="1" hidden="1">
+    <row r="159" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
         <v>228</v>
       </c>
@@ -7474,7 +7489,7 @@
       <c r="S159" s="20"/>
       <c r="T159" s="20"/>
     </row>
-    <row r="160" spans="1:20" customFormat="1" hidden="1">
+    <row r="160" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
         <v>230</v>
       </c>
@@ -7502,7 +7517,7 @@
       <c r="S160" s="20"/>
       <c r="T160" s="20"/>
     </row>
-    <row r="161" spans="1:20" customFormat="1" hidden="1">
+    <row r="161" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>232</v>
       </c>
@@ -7530,7 +7545,7 @@
       <c r="S161" s="20"/>
       <c r="T161" s="20"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>233</v>
       </c>
@@ -7541,7 +7556,7 @@
         <v>234</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
@@ -7558,7 +7573,7 @@
       <c r="S162" s="19"/>
       <c r="T162" s="19"/>
     </row>
-    <row r="163" spans="1:20" customFormat="1">
+    <row r="163" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>235</v>
       </c>
@@ -7569,7 +7584,7 @@
         <v>236</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
@@ -7588,7 +7603,7 @@
       <c r="S163" s="20"/>
       <c r="T163" s="20"/>
     </row>
-    <row r="164" spans="1:20" customFormat="1" hidden="1">
+    <row r="164" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>237</v>
       </c>
@@ -7616,7 +7631,7 @@
       <c r="S164" s="20"/>
       <c r="T164" s="20"/>
     </row>
-    <row r="165" spans="1:20" customFormat="1">
+    <row r="165" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>238</v>
       </c>
@@ -7627,7 +7642,7 @@
         <v>239</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -7646,7 +7661,7 @@
       <c r="S165" s="20"/>
       <c r="T165" s="20"/>
     </row>
-    <row r="166" spans="1:20" customFormat="1" hidden="1">
+    <row r="166" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>240</v>
       </c>
@@ -7674,7 +7689,7 @@
       <c r="S166" s="20"/>
       <c r="T166" s="20"/>
     </row>
-    <row r="167" spans="1:20" customFormat="1">
+    <row r="167" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>241</v>
       </c>
@@ -7685,7 +7700,7 @@
         <v>242</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
@@ -7704,7 +7719,7 @@
       <c r="S167" s="20"/>
       <c r="T167" s="20"/>
     </row>
-    <row r="168" spans="1:20" customFormat="1" hidden="1">
+    <row r="168" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
         <v>243</v>
       </c>
@@ -7732,7 +7747,7 @@
       <c r="S168" s="20"/>
       <c r="T168" s="20"/>
     </row>
-    <row r="169" spans="1:20" customFormat="1">
+    <row r="169" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
         <v>244</v>
       </c>
@@ -7762,7 +7777,7 @@
       <c r="S169" s="20"/>
       <c r="T169" s="20"/>
     </row>
-    <row r="170" spans="1:20" hidden="1">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>246</v>
       </c>
@@ -7787,7 +7802,7 @@
       <c r="S170" s="19"/>
       <c r="T170" s="19"/>
     </row>
-    <row r="171" spans="1:20" customFormat="1" hidden="1">
+    <row r="171" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
         <v>247</v>
       </c>
@@ -7815,7 +7830,7 @@
       <c r="S171" s="20"/>
       <c r="T171" s="20"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>248</v>
       </c>
@@ -7843,7 +7858,7 @@
       <c r="S172" s="19"/>
       <c r="T172" s="19"/>
     </row>
-    <row r="173" spans="1:20" customFormat="1">
+    <row r="173" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
         <v>250</v>
       </c>
@@ -7873,7 +7888,7 @@
       <c r="S173" s="20"/>
       <c r="T173" s="20"/>
     </row>
-    <row r="174" spans="1:20" hidden="1">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>252</v>
       </c>
@@ -7898,7 +7913,7 @@
       <c r="S174" s="19"/>
       <c r="T174" s="19"/>
     </row>
-    <row r="175" spans="1:20" hidden="1">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>253</v>
       </c>
@@ -7923,7 +7938,7 @@
       <c r="S175" s="19"/>
       <c r="T175" s="19"/>
     </row>
-    <row r="176" spans="1:20" hidden="1">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>254</v>
       </c>
@@ -7951,7 +7966,7 @@
       <c r="S176" s="19"/>
       <c r="T176" s="19"/>
     </row>
-    <row r="177" spans="1:20" hidden="1">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>256</v>
       </c>
@@ -7979,7 +7994,7 @@
       <c r="S177" s="19"/>
       <c r="T177" s="19"/>
     </row>
-    <row r="178" spans="1:20" hidden="1">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>258</v>
       </c>
@@ -8007,7 +8022,7 @@
       <c r="S178" s="19"/>
       <c r="T178" s="19"/>
     </row>
-    <row r="179" spans="1:20" customFormat="1" hidden="1">
+    <row r="179" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
         <v>260</v>
       </c>
@@ -8035,7 +8050,7 @@
       <c r="S179" s="20"/>
       <c r="T179" s="20"/>
     </row>
-    <row r="180" spans="1:20" customFormat="1" hidden="1">
+    <row r="180" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>261</v>
       </c>
@@ -8063,7 +8078,7 @@
       <c r="S180" s="20"/>
       <c r="T180" s="20"/>
     </row>
-    <row r="181" spans="1:20" customFormat="1">
+    <row r="181" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>262</v>
       </c>
@@ -8091,7 +8106,7 @@
       <c r="S181" s="20"/>
       <c r="T181" s="20"/>
     </row>
-    <row r="182" spans="1:20" customFormat="1" hidden="1">
+    <row r="182" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>264</v>
       </c>
@@ -8119,7 +8134,7 @@
       <c r="S182" s="20"/>
       <c r="T182" s="20"/>
     </row>
-    <row r="183" spans="1:20" customFormat="1">
+    <row r="183" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
         <v>265</v>
       </c>
@@ -8149,7 +8164,7 @@
       <c r="S183" s="20"/>
       <c r="T183" s="20"/>
     </row>
-    <row r="184" spans="1:20" customFormat="1">
+    <row r="184" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>267</v>
       </c>
@@ -8177,7 +8192,7 @@
       <c r="S184" s="20"/>
       <c r="T184" s="20"/>
     </row>
-    <row r="185" spans="1:20" customFormat="1" hidden="1">
+    <row r="185" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
         <v>269</v>
       </c>
@@ -8205,7 +8220,7 @@
       <c r="S185" s="20"/>
       <c r="T185" s="20"/>
     </row>
-    <row r="186" spans="1:20" customFormat="1" hidden="1">
+    <row r="186" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
         <v>271</v>
       </c>
@@ -8233,7 +8248,7 @@
       <c r="S186" s="20"/>
       <c r="T186" s="20"/>
     </row>
-    <row r="187" spans="1:20" customFormat="1" hidden="1">
+    <row r="187" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
         <v>273</v>
       </c>
@@ -8261,7 +8276,7 @@
       <c r="S187" s="20"/>
       <c r="T187" s="20"/>
     </row>
-    <row r="188" spans="1:20" customFormat="1">
+    <row r="188" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
         <v>274</v>
       </c>
@@ -8291,7 +8306,7 @@
       <c r="S188" s="20"/>
       <c r="T188" s="20"/>
     </row>
-    <row r="189" spans="1:20" customFormat="1" hidden="1">
+    <row r="189" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
         <v>276</v>
       </c>
@@ -8319,7 +8334,7 @@
       <c r="S189" s="20"/>
       <c r="T189" s="20"/>
     </row>
-    <row r="190" spans="1:20" customFormat="1" hidden="1">
+    <row r="190" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
         <v>278</v>
       </c>
@@ -8347,7 +8362,7 @@
       <c r="S190" s="20"/>
       <c r="T190" s="20"/>
     </row>
-    <row r="191" spans="1:20" customFormat="1" ht="14.25" hidden="1">
+    <row r="191" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>280</v>
       </c>
@@ -8375,7 +8390,7 @@
       <c r="S191" s="20"/>
       <c r="T191" s="20"/>
     </row>
-    <row r="192" spans="1:20" customFormat="1" hidden="1">
+    <row r="192" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
         <v>281</v>
       </c>
@@ -8403,7 +8418,7 @@
       <c r="S192" s="20"/>
       <c r="T192" s="20"/>
     </row>
-    <row r="193" spans="1:20" hidden="1">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>282</v>
       </c>
@@ -8428,7 +8443,7 @@
       <c r="S193" s="19"/>
       <c r="T193" s="19"/>
     </row>
-    <row r="194" spans="1:20" customFormat="1" hidden="1">
+    <row r="194" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
         <v>283</v>
       </c>
@@ -8456,7 +8471,7 @@
       <c r="S194" s="20"/>
       <c r="T194" s="20"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>284</v>
       </c>
@@ -8481,7 +8496,7 @@
       <c r="S195" s="19"/>
       <c r="T195" s="19"/>
     </row>
-    <row r="196" spans="1:20" customFormat="1">
+    <row r="196" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="3" t="s">
         <v>286</v>
       </c>
@@ -8492,7 +8507,7 @@
         <v>287</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -8511,7 +8526,7 @@
       <c r="S196" s="20"/>
       <c r="T196" s="20"/>
     </row>
-    <row r="197" spans="1:20" hidden="1">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>288</v>
       </c>
@@ -8536,7 +8551,7 @@
       <c r="S197" s="19"/>
       <c r="T197" s="19"/>
     </row>
-    <row r="198" spans="1:20" hidden="1">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>289</v>
       </c>
@@ -8561,7 +8576,7 @@
       <c r="S198" s="19"/>
       <c r="T198" s="19"/>
     </row>
-    <row r="199" spans="1:20" hidden="1">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>290</v>
       </c>
@@ -8586,7 +8601,7 @@
       <c r="S199" s="19"/>
       <c r="T199" s="19"/>
     </row>
-    <row r="200" spans="1:20" s="19" customFormat="1">
+    <row r="200" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="19" t="s">
         <v>291</v>
       </c>
@@ -8597,7 +8612,7 @@
         <v>292</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
@@ -8606,7 +8621,7 @@
       <c r="O200" s="12"/>
       <c r="P200" s="12"/>
     </row>
-    <row r="201" spans="1:20" hidden="1">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>293</v>
       </c>
@@ -8631,7 +8646,7 @@
       <c r="S201" s="19"/>
       <c r="T201" s="19"/>
     </row>
-    <row r="202" spans="1:20" customFormat="1" hidden="1">
+    <row r="202" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
         <v>294</v>
       </c>
@@ -8659,7 +8674,7 @@
       <c r="S202" s="20"/>
       <c r="T202" s="20"/>
     </row>
-    <row r="203" spans="1:20" customFormat="1">
+    <row r="203" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
         <v>295</v>
       </c>
@@ -8670,7 +8685,7 @@
         <v>296</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -8689,7 +8704,7 @@
       <c r="S203" s="20"/>
       <c r="T203" s="20"/>
     </row>
-    <row r="204" spans="1:20" hidden="1">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>297</v>
       </c>
@@ -8714,7 +8729,7 @@
       <c r="S204" s="19"/>
       <c r="T204" s="19"/>
     </row>
-    <row r="205" spans="1:20" customFormat="1" hidden="1">
+    <row r="205" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
         <v>298</v>
       </c>
@@ -8742,7 +8757,7 @@
       <c r="S205" s="20"/>
       <c r="T205" s="20"/>
     </row>
-    <row r="206" spans="1:20" customFormat="1">
+    <row r="206" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
         <v>299</v>
       </c>
@@ -8753,7 +8768,7 @@
         <v>300</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -8772,7 +8787,7 @@
       <c r="S206" s="20"/>
       <c r="T206" s="20"/>
     </row>
-    <row r="207" spans="1:20" customFormat="1" hidden="1">
+    <row r="207" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
         <v>301</v>
       </c>
@@ -8800,7 +8815,7 @@
       <c r="S207" s="20"/>
       <c r="T207" s="20"/>
     </row>
-    <row r="208" spans="1:20" hidden="1">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>302</v>
       </c>
@@ -8825,7 +8840,7 @@
       <c r="S208" s="19"/>
       <c r="T208" s="19"/>
     </row>
-    <row r="209" spans="1:20" customFormat="1">
+    <row r="209" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
         <v>303</v>
       </c>
@@ -8836,7 +8851,7 @@
         <v>304</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -8855,7 +8870,7 @@
       <c r="S209" s="20"/>
       <c r="T209" s="20"/>
     </row>
-    <row r="210" spans="1:20" hidden="1">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>305</v>
       </c>
@@ -8880,7 +8895,7 @@
       <c r="S210" s="19"/>
       <c r="T210" s="19"/>
     </row>
-    <row r="211" spans="1:20" customFormat="1" hidden="1">
+    <row r="211" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
         <v>306</v>
       </c>
@@ -8908,7 +8923,7 @@
       <c r="S211" s="20"/>
       <c r="T211" s="20"/>
     </row>
-    <row r="212" spans="1:20" customFormat="1">
+    <row r="212" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
         <v>307</v>
       </c>
@@ -8936,7 +8951,7 @@
       <c r="S212" s="20"/>
       <c r="T212" s="20"/>
     </row>
-    <row r="213" spans="1:20" customFormat="1" hidden="1">
+    <row r="213" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
         <v>309</v>
       </c>
@@ -8964,7 +8979,7 @@
       <c r="S213" s="20"/>
       <c r="T213" s="20"/>
     </row>
-    <row r="214" spans="1:20" hidden="1">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>310</v>
       </c>
@@ -8989,7 +9004,7 @@
       <c r="S214" s="19"/>
       <c r="T214" s="19"/>
     </row>
-    <row r="215" spans="1:20" s="19" customFormat="1">
+    <row r="215" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A215" s="19" t="s">
         <v>311</v>
       </c>
@@ -9000,12 +9015,12 @@
         <v>312</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
     </row>
-    <row r="216" spans="1:20" customFormat="1" hidden="1">
+    <row r="216" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
         <v>313</v>
       </c>
@@ -9033,7 +9048,7 @@
       <c r="S216" s="20"/>
       <c r="T216" s="20"/>
     </row>
-    <row r="217" spans="1:20" customFormat="1" hidden="1">
+    <row r="217" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
         <v>314</v>
       </c>
@@ -9061,7 +9076,7 @@
       <c r="S217" s="20"/>
       <c r="T217" s="20"/>
     </row>
-    <row r="218" spans="1:20" customFormat="1" hidden="1">
+    <row r="218" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
         <v>316</v>
       </c>
@@ -9089,7 +9104,7 @@
       <c r="S218" s="20"/>
       <c r="T218" s="20"/>
     </row>
-    <row r="219" spans="1:20" hidden="1">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
         <v>318</v>
       </c>
@@ -9114,7 +9129,7 @@
       <c r="S219" s="19"/>
       <c r="T219" s="19"/>
     </row>
-    <row r="220" spans="1:20" customFormat="1" hidden="1">
+    <row r="220" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>319</v>
       </c>
@@ -9142,7 +9157,7 @@
       <c r="S220" s="20"/>
       <c r="T220" s="20"/>
     </row>
-    <row r="221" spans="1:20" customFormat="1">
+    <row r="221" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>320</v>
       </c>
@@ -9170,7 +9185,7 @@
       <c r="S221" s="20"/>
       <c r="T221" s="20"/>
     </row>
-    <row r="222" spans="1:20" customFormat="1" hidden="1">
+    <row r="222" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>322</v>
       </c>
@@ -9198,7 +9213,7 @@
       <c r="S222" s="20"/>
       <c r="T222" s="20"/>
     </row>
-    <row r="223" spans="1:20">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>323</v>
       </c>
@@ -9209,7 +9224,7 @@
         <v>324</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G223" s="19"/>
       <c r="H223" s="19"/>
@@ -9226,7 +9241,7 @@
       <c r="S223" s="19"/>
       <c r="T223" s="19"/>
     </row>
-    <row r="224" spans="1:20" customFormat="1" hidden="1">
+    <row r="224" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
         <v>325</v>
       </c>
@@ -9254,7 +9269,7 @@
       <c r="S224" s="20"/>
       <c r="T224" s="20"/>
     </row>
-    <row r="225" spans="1:20" customFormat="1" hidden="1">
+    <row r="225" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>326</v>
       </c>
@@ -9282,7 +9297,7 @@
       <c r="S225" s="20"/>
       <c r="T225" s="20"/>
     </row>
-    <row r="226" spans="1:20" hidden="1">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>327</v>
       </c>
@@ -9307,7 +9322,7 @@
       <c r="S226" s="19"/>
       <c r="T226" s="19"/>
     </row>
-    <row r="227" spans="1:20" customFormat="1" hidden="1">
+    <row r="227" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
         <v>328</v>
       </c>
@@ -9335,7 +9350,7 @@
       <c r="S227" s="20"/>
       <c r="T227" s="20"/>
     </row>
-    <row r="228" spans="1:20" s="20" customFormat="1" hidden="1">
+    <row r="228" spans="1:20" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="24" t="s">
         <v>329</v>
       </c>
@@ -9353,7 +9368,7 @@
       <c r="I228" s="17"/>
       <c r="J228" s="17"/>
     </row>
-    <row r="229" spans="1:20" s="19" customFormat="1">
+    <row r="229" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="19" t="s">
         <v>331</v>
       </c>
@@ -9364,7 +9379,7 @@
         <v>332</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
@@ -9373,7 +9388,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
     </row>
-    <row r="230" spans="1:20" s="19" customFormat="1" hidden="1">
+    <row r="230" spans="1:20" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="19" t="s">
         <v>333</v>
       </c>
@@ -9389,7 +9404,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
     </row>
-    <row r="231" spans="1:20" s="20" customFormat="1" hidden="1">
+    <row r="231" spans="1:20" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="24" t="s">
         <v>334</v>
       </c>
@@ -9407,7 +9422,7 @@
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
     </row>
-    <row r="232" spans="1:20" s="20" customFormat="1" hidden="1">
+    <row r="232" spans="1:20" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="24" t="s">
         <v>335</v>
       </c>
@@ -9425,7 +9440,7 @@
       <c r="I232" s="17"/>
       <c r="J232" s="17"/>
     </row>
-    <row r="233" spans="1:20" s="20" customFormat="1" hidden="1">
+    <row r="233" spans="1:20" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="24" t="s">
         <v>336</v>
       </c>
@@ -9443,7 +9458,7 @@
       <c r="I233" s="17"/>
       <c r="J233" s="17"/>
     </row>
-    <row r="234" spans="1:20" s="19" customFormat="1" hidden="1">
+    <row r="234" spans="1:20" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="19" t="s">
         <v>337</v>
       </c>
@@ -9459,7 +9474,7 @@
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
     </row>
-    <row r="235" spans="1:20" s="19" customFormat="1">
+    <row r="235" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="19" t="s">
         <v>338</v>
       </c>
@@ -9470,14 +9485,14 @@
         <v>339</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
     </row>
-    <row r="236" spans="1:20" s="19" customFormat="1" hidden="1">
+    <row r="236" spans="1:20" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="19" t="s">
         <v>340</v>
       </c>
@@ -9493,7 +9508,7 @@
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
     </row>
-    <row r="237" spans="1:20" s="19" customFormat="1" hidden="1">
+    <row r="237" spans="1:20" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="19" t="s">
         <v>341</v>
       </c>
@@ -9509,7 +9524,7 @@
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
     </row>
-    <row r="238" spans="1:20" s="19" customFormat="1">
+    <row r="238" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A238" s="19" t="s">
         <v>342</v>
       </c>
@@ -9520,14 +9535,14 @@
         <v>343</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E238" s="12"/>
       <c r="F238" s="12"/>
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
     </row>
-    <row r="239" spans="1:20" s="19" customFormat="1" hidden="1">
+    <row r="239" spans="1:20" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="19" t="s">
         <v>344</v>
       </c>
@@ -9543,7 +9558,7 @@
       <c r="I239" s="12"/>
       <c r="J239" s="12"/>
     </row>
-    <row r="240" spans="1:20" customFormat="1">
+    <row r="240" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A240" s="3" t="s">
         <v>345</v>
       </c>
@@ -9554,7 +9569,7 @@
         <v>346</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
@@ -9573,7 +9588,7 @@
       <c r="S240" s="20"/>
       <c r="T240" s="20"/>
     </row>
-    <row r="241" spans="1:21" customFormat="1" hidden="1">
+    <row r="241" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="3" t="s">
         <v>347</v>
       </c>
@@ -9601,7 +9616,7 @@
       <c r="S241" s="20"/>
       <c r="T241" s="20"/>
     </row>
-    <row r="242" spans="1:21" customFormat="1">
+    <row r="242" spans="1:21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A242" s="3" t="s">
         <v>348</v>
       </c>
@@ -9612,7 +9627,7 @@
         <v>349</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
@@ -9632,7 +9647,7 @@
       <c r="T242" s="2"/>
       <c r="U242" s="3"/>
     </row>
-    <row r="243" spans="1:21" customFormat="1" hidden="1">
+    <row r="243" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="3" t="s">
         <v>350</v>
       </c>
@@ -9660,7 +9675,7 @@
       <c r="S243" s="20"/>
       <c r="T243" s="20"/>
     </row>
-    <row r="244" spans="1:21" customFormat="1" hidden="1">
+    <row r="244" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="3" t="s">
         <v>352</v>
       </c>
@@ -9688,7 +9703,7 @@
       <c r="S244" s="20"/>
       <c r="T244" s="20"/>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>353</v>
       </c>
@@ -9713,7 +9728,7 @@
       <c r="S245" s="19"/>
       <c r="T245" s="19"/>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>355</v>
       </c>
@@ -9735,7 +9750,7 @@
       <c r="S246" s="19"/>
       <c r="T246" s="19"/>
     </row>
-    <row r="247" spans="1:21" hidden="1">
+    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>356</v>
       </c>
@@ -9760,7 +9775,7 @@
       <c r="S247" s="19"/>
       <c r="T247" s="19"/>
     </row>
-    <row r="248" spans="1:21" customFormat="1" hidden="1">
+    <row r="248" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
         <v>357</v>
       </c>
@@ -9788,7 +9803,7 @@
       <c r="S248" s="20"/>
       <c r="T248" s="20"/>
     </row>
-    <row r="249" spans="1:21" customFormat="1">
+    <row r="249" spans="1:21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A249" s="3" t="s">
         <v>358</v>
       </c>
@@ -9816,7 +9831,7 @@
       <c r="S249" s="20"/>
       <c r="T249" s="20"/>
     </row>
-    <row r="250" spans="1:21" hidden="1">
+    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
         <v>360</v>
       </c>
@@ -9841,7 +9856,7 @@
       <c r="S250" s="19"/>
       <c r="T250" s="19"/>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
         <v>361</v>
       </c>
@@ -9852,7 +9867,7 @@
         <v>362</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
@@ -9871,7 +9886,7 @@
       <c r="S251" s="19"/>
       <c r="T251" s="19"/>
     </row>
-    <row r="252" spans="1:21" customFormat="1" hidden="1">
+    <row r="252" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
         <v>363</v>
       </c>
@@ -9899,7 +9914,7 @@
       <c r="S252" s="20"/>
       <c r="T252" s="20"/>
     </row>
-    <row r="253" spans="1:21" customFormat="1" hidden="1">
+    <row r="253" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="3" t="s">
         <v>364</v>
       </c>
@@ -9927,7 +9942,7 @@
       <c r="S253" s="20"/>
       <c r="T253" s="20"/>
     </row>
-    <row r="254" spans="1:21" customFormat="1" hidden="1">
+    <row r="254" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>365</v>
       </c>
@@ -9955,7 +9970,7 @@
       <c r="S254" s="20"/>
       <c r="T254" s="20"/>
     </row>
-    <row r="255" spans="1:21" customFormat="1">
+    <row r="255" spans="1:21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>366</v>
       </c>
@@ -9983,7 +9998,7 @@
       <c r="S255" s="20"/>
       <c r="T255" s="20"/>
     </row>
-    <row r="256" spans="1:21" customFormat="1" hidden="1">
+    <row r="256" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="3" t="s">
         <v>368</v>
       </c>
@@ -10011,7 +10026,7 @@
       <c r="S256" s="20"/>
       <c r="T256" s="20"/>
     </row>
-    <row r="257" spans="1:20" customFormat="1">
+    <row r="257" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A257" s="3" t="s">
         <v>369</v>
       </c>
@@ -10041,7 +10056,7 @@
       <c r="S257" s="20"/>
       <c r="T257" s="20"/>
     </row>
-    <row r="258" spans="1:20" customFormat="1" hidden="1">
+    <row r="258" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>371</v>
       </c>
@@ -10069,7 +10084,7 @@
       <c r="S258" s="20"/>
       <c r="T258" s="20"/>
     </row>
-    <row r="259" spans="1:20" hidden="1">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
         <v>372</v>
       </c>
@@ -10094,7 +10109,7 @@
       <c r="S259" s="19"/>
       <c r="T259" s="19"/>
     </row>
-    <row r="260" spans="1:20" customFormat="1">
+    <row r="260" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>373</v>
       </c>
@@ -10122,7 +10137,7 @@
       <c r="S260" s="20"/>
       <c r="T260" s="20"/>
     </row>
-    <row r="261" spans="1:20" customFormat="1" hidden="1">
+    <row r="261" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>375</v>
       </c>
@@ -10150,7 +10165,7 @@
       <c r="S261" s="20"/>
       <c r="T261" s="20"/>
     </row>
-    <row r="262" spans="1:20" customFormat="1" hidden="1">
+    <row r="262" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="3" t="s">
         <v>376</v>
       </c>
@@ -10178,7 +10193,7 @@
       <c r="S262" s="20"/>
       <c r="T262" s="20"/>
     </row>
-    <row r="263" spans="1:20" customFormat="1">
+    <row r="263" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>377</v>
       </c>
@@ -10206,7 +10221,7 @@
       <c r="S263" s="20"/>
       <c r="T263" s="20"/>
     </row>
-    <row r="264" spans="1:20" customFormat="1" hidden="1">
+    <row r="264" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>378</v>
       </c>
@@ -10234,7 +10249,7 @@
       <c r="S264" s="20"/>
       <c r="T264" s="20"/>
     </row>
-    <row r="265" spans="1:20" customFormat="1">
+    <row r="265" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A265" s="3" t="s">
         <v>379</v>
       </c>
@@ -10262,7 +10277,7 @@
       <c r="S265" s="20"/>
       <c r="T265" s="20"/>
     </row>
-    <row r="266" spans="1:20" customFormat="1" hidden="1">
+    <row r="266" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="3" t="s">
         <v>381</v>
       </c>
@@ -10290,7 +10305,7 @@
       <c r="S266" s="20"/>
       <c r="T266" s="20"/>
     </row>
-    <row r="267" spans="1:20" customFormat="1" hidden="1">
+    <row r="267" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="3" t="s">
         <v>383</v>
       </c>
@@ -10318,7 +10333,7 @@
       <c r="S267" s="20"/>
       <c r="T267" s="20"/>
     </row>
-    <row r="268" spans="1:20" customFormat="1" hidden="1">
+    <row r="268" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="3" t="s">
         <v>385</v>
       </c>
@@ -10346,7 +10361,7 @@
       <c r="S268" s="20"/>
       <c r="T268" s="20"/>
     </row>
-    <row r="269" spans="1:20" customFormat="1" hidden="1">
+    <row r="269" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="3" t="s">
         <v>386</v>
       </c>
@@ -10374,7 +10389,7 @@
       <c r="S269" s="20"/>
       <c r="T269" s="20"/>
     </row>
-    <row r="270" spans="1:20" customFormat="1" hidden="1">
+    <row r="270" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="3" t="s">
         <v>388</v>
       </c>
@@ -10402,7 +10417,7 @@
       <c r="S270" s="20"/>
       <c r="T270" s="20"/>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
         <v>390</v>
       </c>
@@ -10413,7 +10428,7 @@
         <v>391</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
@@ -10432,7 +10447,7 @@
       <c r="S271" s="19"/>
       <c r="T271" s="19"/>
     </row>
-    <row r="272" spans="1:20" hidden="1">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
         <v>392</v>
       </c>
@@ -10457,7 +10472,7 @@
       <c r="S272" s="19"/>
       <c r="T272" s="19"/>
     </row>
-    <row r="273" spans="1:20" customFormat="1" hidden="1">
+    <row r="273" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="3" t="s">
         <v>393</v>
       </c>
@@ -10485,7 +10500,7 @@
       <c r="S273" s="20"/>
       <c r="T273" s="20"/>
     </row>
-    <row r="274" spans="1:20">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
         <v>394</v>
       </c>
@@ -10496,7 +10511,7 @@
         <v>395</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
@@ -10515,7 +10530,7 @@
       <c r="S274" s="19"/>
       <c r="T274" s="19"/>
     </row>
-    <row r="275" spans="1:20" customFormat="1" hidden="1">
+    <row r="275" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="3" t="s">
         <v>396</v>
       </c>
@@ -10543,7 +10558,7 @@
       <c r="S275" s="20"/>
       <c r="T275" s="20"/>
     </row>
-    <row r="276" spans="1:20" customFormat="1" hidden="1">
+    <row r="276" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="3" t="s">
         <v>397</v>
       </c>
@@ -10571,7 +10586,7 @@
       <c r="S276" s="20"/>
       <c r="T276" s="20"/>
     </row>
-    <row r="277" spans="1:20" hidden="1">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
         <v>398</v>
       </c>
@@ -10596,7 +10611,7 @@
       <c r="S277" s="19"/>
       <c r="T277" s="19"/>
     </row>
-    <row r="278" spans="1:20" customFormat="1" hidden="1">
+    <row r="278" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="3" t="s">
         <v>399</v>
       </c>
@@ -10624,7 +10639,7 @@
       <c r="S278" s="20"/>
       <c r="T278" s="20"/>
     </row>
-    <row r="279" spans="1:20" s="19" customFormat="1">
+    <row r="279" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A279" s="19" t="s">
         <v>400</v>
       </c>
@@ -10635,14 +10650,14 @@
         <v>645</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
     </row>
-    <row r="280" spans="1:20" s="20" customFormat="1" hidden="1">
+    <row r="280" spans="1:20" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="24" t="s">
         <v>401</v>
       </c>
@@ -10660,7 +10675,7 @@
       <c r="I280" s="17"/>
       <c r="J280" s="17"/>
     </row>
-    <row r="281" spans="1:20" s="20" customFormat="1">
+    <row r="281" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A281" s="26" t="s">
         <v>402</v>
       </c>
@@ -10671,7 +10686,7 @@
         <v>403</v>
       </c>
       <c r="D281" s="27" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E281" s="27"/>
       <c r="F281" s="27"/>
@@ -10680,7 +10695,7 @@
       <c r="I281" s="27"/>
       <c r="J281" s="27"/>
     </row>
-    <row r="282" spans="1:20" s="20" customFormat="1" hidden="1">
+    <row r="282" spans="1:20" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="26" t="s">
         <v>404</v>
       </c>
@@ -10698,7 +10713,7 @@
       <c r="I282" s="17"/>
       <c r="J282" s="17"/>
     </row>
-    <row r="283" spans="1:20" s="20" customFormat="1">
+    <row r="283" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A283" s="26" t="s">
         <v>405</v>
       </c>
@@ -10709,7 +10724,7 @@
         <v>100</v>
       </c>
       <c r="D283" s="27" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E283" s="27"/>
       <c r="F283" s="27"/>
@@ -10718,7 +10733,7 @@
       <c r="I283" s="27"/>
       <c r="J283" s="27"/>
     </row>
-    <row r="284" spans="1:20" s="20" customFormat="1" hidden="1">
+    <row r="284" spans="1:20" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="26" t="s">
         <v>406</v>
       </c>
@@ -10736,7 +10751,7 @@
       <c r="I284" s="17"/>
       <c r="J284" s="17"/>
     </row>
-    <row r="285" spans="1:20" s="19" customFormat="1" hidden="1">
+    <row r="285" spans="1:20" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="19" t="s">
         <v>407</v>
       </c>
@@ -10752,7 +10767,7 @@
       <c r="I285" s="12"/>
       <c r="J285" s="12"/>
     </row>
-    <row r="286" spans="1:20" s="20" customFormat="1">
+    <row r="286" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A286" s="26" t="s">
         <v>408</v>
       </c>
@@ -10763,7 +10778,7 @@
         <v>409</v>
       </c>
       <c r="D286" s="27" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E286" s="27"/>
       <c r="F286" s="27"/>
@@ -10781,7 +10796,7 @@
       <c r="R286" s="31"/>
       <c r="S286" s="31"/>
     </row>
-    <row r="287" spans="1:20" s="19" customFormat="1">
+    <row r="287" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A287" s="19" t="s">
         <v>410</v>
       </c>
@@ -10797,7 +10812,7 @@
       <c r="I287" s="12"/>
       <c r="J287" s="12"/>
     </row>
-    <row r="288" spans="1:20" s="19" customFormat="1" hidden="1">
+    <row r="288" spans="1:20" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="19" t="s">
         <v>412</v>
       </c>
@@ -10813,7 +10828,7 @@
       <c r="I288" s="12"/>
       <c r="J288" s="12"/>
     </row>
-    <row r="289" spans="1:20" s="19" customFormat="1">
+    <row r="289" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A289" s="19" t="s">
         <v>413</v>
       </c>
@@ -10830,7 +10845,7 @@
       <c r="J289" s="12"/>
       <c r="L289" s="12"/>
     </row>
-    <row r="290" spans="1:20" s="19" customFormat="1" hidden="1">
+    <row r="290" spans="1:20" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="19" t="s">
         <v>415</v>
       </c>
@@ -10846,7 +10861,7 @@
       <c r="I290" s="12"/>
       <c r="J290" s="12"/>
     </row>
-    <row r="291" spans="1:20" s="19" customFormat="1">
+    <row r="291" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A291" s="19" t="s">
         <v>416</v>
       </c>
@@ -10862,7 +10877,7 @@
       <c r="I291" s="12"/>
       <c r="J291" s="12"/>
     </row>
-    <row r="292" spans="1:20" s="20" customFormat="1">
+    <row r="292" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A292" s="24" t="s">
         <v>418</v>
       </c>
@@ -10873,7 +10888,7 @@
         <v>419</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E292" s="25"/>
       <c r="F292" s="25"/>
@@ -10884,7 +10899,7 @@
       <c r="K292" s="25"/>
       <c r="L292" s="25"/>
     </row>
-    <row r="293" spans="1:20" customFormat="1" hidden="1">
+    <row r="293" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="3" t="s">
         <v>420</v>
       </c>
@@ -10914,7 +10929,7 @@
       <c r="S293" s="20"/>
       <c r="T293" s="20"/>
     </row>
-    <row r="294" spans="1:20" customFormat="1" hidden="1">
+    <row r="294" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
         <v>421</v>
       </c>
@@ -10944,7 +10959,7 @@
       <c r="S294" s="20"/>
       <c r="T294" s="20"/>
     </row>
-    <row r="295" spans="1:20" customFormat="1" hidden="1">
+    <row r="295" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
         <v>422</v>
       </c>
@@ -10972,7 +10987,7 @@
       <c r="S295" s="20"/>
       <c r="T295" s="20"/>
     </row>
-    <row r="296" spans="1:20" customFormat="1">
+    <row r="296" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A296" s="3" t="s">
         <v>423</v>
       </c>
@@ -10983,7 +10998,7 @@
         <v>424</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
@@ -11002,7 +11017,7 @@
       <c r="S296" s="20"/>
       <c r="T296" s="20"/>
     </row>
-    <row r="297" spans="1:20" customFormat="1" hidden="1">
+    <row r="297" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
         <v>425</v>
       </c>
@@ -11030,7 +11045,7 @@
       <c r="S297" s="20"/>
       <c r="T297" s="20"/>
     </row>
-    <row r="298" spans="1:20" customFormat="1" hidden="1">
+    <row r="298" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>426</v>
       </c>
@@ -11058,7 +11073,7 @@
       <c r="S298" s="20"/>
       <c r="T298" s="20"/>
     </row>
-    <row r="299" spans="1:20" customFormat="1">
+    <row r="299" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
         <v>427</v>
       </c>
@@ -11069,7 +11084,7 @@
         <v>428</v>
       </c>
       <c r="D299" s="27" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E299" s="27"/>
       <c r="F299" s="7"/>
@@ -11088,7 +11103,7 @@
       <c r="S299" s="20"/>
       <c r="T299" s="20"/>
     </row>
-    <row r="300" spans="1:20" customFormat="1" hidden="1">
+    <row r="300" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
         <v>429</v>
       </c>
@@ -11116,7 +11131,7 @@
       <c r="S300" s="20"/>
       <c r="T300" s="20"/>
     </row>
-    <row r="301" spans="1:20" customFormat="1">
+    <row r="301" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
         <v>430</v>
       </c>
@@ -11127,7 +11142,7 @@
         <v>431</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
@@ -11146,7 +11161,7 @@
       <c r="S301" s="20"/>
       <c r="T301" s="20"/>
     </row>
-    <row r="302" spans="1:20" customFormat="1">
+    <row r="302" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
         <v>432</v>
       </c>
@@ -11157,7 +11172,7 @@
         <v>433</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
@@ -11176,7 +11191,7 @@
       <c r="S302" s="20"/>
       <c r="T302" s="20"/>
     </row>
-    <row r="303" spans="1:20" hidden="1">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
         <v>434</v>
       </c>
@@ -11201,7 +11216,7 @@
       <c r="S303" s="19"/>
       <c r="T303" s="19"/>
     </row>
-    <row r="304" spans="1:20" customFormat="1" hidden="1">
+    <row r="304" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
         <v>435</v>
       </c>
@@ -11229,7 +11244,7 @@
       <c r="S304" s="20"/>
       <c r="T304" s="20"/>
     </row>
-    <row r="305" spans="1:20" customFormat="1" hidden="1">
+    <row r="305" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="3" t="s">
         <v>436</v>
       </c>
@@ -11257,7 +11272,7 @@
       <c r="S305" s="20"/>
       <c r="T305" s="20"/>
     </row>
-    <row r="306" spans="1:20">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
         <v>437</v>
       </c>
@@ -11268,7 +11283,7 @@
         <v>438</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G306" s="19"/>
       <c r="H306" s="19"/>
@@ -11285,7 +11300,7 @@
       <c r="S306" s="19"/>
       <c r="T306" s="19"/>
     </row>
-    <row r="307" spans="1:20" customFormat="1">
+    <row r="307" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
         <v>439</v>
       </c>
@@ -11313,7 +11328,7 @@
       <c r="S307" s="20"/>
       <c r="T307" s="20"/>
     </row>
-    <row r="308" spans="1:20" customFormat="1" hidden="1">
+    <row r="308" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
         <v>441</v>
       </c>
@@ -11341,7 +11356,7 @@
       <c r="S308" s="20"/>
       <c r="T308" s="20"/>
     </row>
-    <row r="309" spans="1:20" customFormat="1">
+    <row r="309" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>442</v>
       </c>
@@ -11352,7 +11367,7 @@
         <v>443</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
@@ -11371,7 +11386,7 @@
       <c r="S309" s="20"/>
       <c r="T309" s="20"/>
     </row>
-    <row r="310" spans="1:20" hidden="1">
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
         <v>444</v>
       </c>
@@ -11396,7 +11411,7 @@
       <c r="S310" s="19"/>
       <c r="T310" s="19"/>
     </row>
-    <row r="311" spans="1:20" customFormat="1">
+    <row r="311" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A311" s="3" t="s">
         <v>445</v>
       </c>
@@ -11424,7 +11439,7 @@
       <c r="S311" s="20"/>
       <c r="T311" s="20"/>
     </row>
-    <row r="312" spans="1:20" customFormat="1" hidden="1">
+    <row r="312" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="3" t="s">
         <v>447</v>
       </c>
@@ -11452,7 +11467,7 @@
       <c r="S312" s="20"/>
       <c r="T312" s="20"/>
     </row>
-    <row r="313" spans="1:20">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
         <v>448</v>
       </c>
@@ -11463,7 +11478,7 @@
         <v>449</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G313" s="19"/>
       <c r="H313" s="19"/>
@@ -11480,7 +11495,7 @@
       <c r="S313" s="19"/>
       <c r="T313" s="19"/>
     </row>
-    <row r="314" spans="1:20" customFormat="1">
+    <row r="314" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A314" s="3" t="s">
         <v>450</v>
       </c>
@@ -11491,7 +11506,7 @@
         <v>451</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
@@ -11510,7 +11525,7 @@
       <c r="S314" s="20"/>
       <c r="T314" s="20"/>
     </row>
-    <row r="315" spans="1:20" customFormat="1" hidden="1">
+    <row r="315" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="3" t="s">
         <v>452</v>
       </c>
@@ -11538,7 +11553,7 @@
       <c r="S315" s="20"/>
       <c r="T315" s="20"/>
     </row>
-    <row r="316" spans="1:20" customFormat="1">
+    <row r="316" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A316" s="3" t="s">
         <v>453</v>
       </c>
@@ -11566,7 +11581,7 @@
       <c r="S316" s="20"/>
       <c r="T316" s="20"/>
     </row>
-    <row r="317" spans="1:20" hidden="1">
+    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
         <v>455</v>
       </c>
@@ -11591,7 +11606,7 @@
       <c r="S317" s="19"/>
       <c r="T317" s="19"/>
     </row>
-    <row r="318" spans="1:20" customFormat="1" hidden="1">
+    <row r="318" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>456</v>
       </c>
@@ -11619,7 +11634,7 @@
       <c r="S318" s="20"/>
       <c r="T318" s="20"/>
     </row>
-    <row r="319" spans="1:20">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
         <v>457</v>
       </c>
@@ -11630,7 +11645,7 @@
         <v>458</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G319" s="19"/>
       <c r="H319" s="19"/>
@@ -11647,7 +11662,7 @@
       <c r="S319" s="19"/>
       <c r="T319" s="19"/>
     </row>
-    <row r="320" spans="1:20" customFormat="1">
+    <row r="320" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>459</v>
       </c>
@@ -11677,7 +11692,7 @@
       <c r="S320" s="20"/>
       <c r="T320" s="20"/>
     </row>
-    <row r="321" spans="1:33" hidden="1">
+    <row r="321" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
         <v>461</v>
       </c>
@@ -11702,7 +11717,7 @@
       <c r="S321" s="19"/>
       <c r="T321" s="19"/>
     </row>
-    <row r="322" spans="1:33" customFormat="1" hidden="1">
+    <row r="322" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="3" t="s">
         <v>462</v>
       </c>
@@ -11730,7 +11745,7 @@
       <c r="S322" s="20"/>
       <c r="T322" s="20"/>
     </row>
-    <row r="323" spans="1:33" customFormat="1" hidden="1">
+    <row r="323" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="3" t="s">
         <v>463</v>
       </c>
@@ -11758,7 +11773,7 @@
       <c r="S323" s="20"/>
       <c r="T323" s="20"/>
     </row>
-    <row r="324" spans="1:33">
+    <row r="324" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
         <v>464</v>
       </c>
@@ -11769,7 +11784,7 @@
         <v>465</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G324" s="19"/>
       <c r="H324" s="19"/>
@@ -11786,7 +11801,7 @@
       <c r="S324" s="19"/>
       <c r="T324" s="19"/>
     </row>
-    <row r="325" spans="1:33" customFormat="1" hidden="1">
+    <row r="325" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="3" t="s">
         <v>466</v>
       </c>
@@ -11814,7 +11829,7 @@
       <c r="S325" s="20"/>
       <c r="T325" s="20"/>
     </row>
-    <row r="326" spans="1:33" customFormat="1" hidden="1">
+    <row r="326" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
         <v>467</v>
       </c>
@@ -11842,7 +11857,7 @@
       <c r="S326" s="20"/>
       <c r="T326" s="20"/>
     </row>
-    <row r="327" spans="1:33" hidden="1">
+    <row r="327" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="2" t="s">
         <v>468</v>
       </c>
@@ -11867,7 +11882,7 @@
       <c r="S327" s="19"/>
       <c r="T327" s="19"/>
     </row>
-    <row r="328" spans="1:33" customFormat="1">
+    <row r="328" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A328" s="3" t="s">
         <v>469</v>
       </c>
@@ -11878,7 +11893,7 @@
         <v>470</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
@@ -11910,7 +11925,7 @@
       <c r="AF328" s="20"/>
       <c r="AG328" s="20"/>
     </row>
-    <row r="329" spans="1:33">
+    <row r="329" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
         <v>471</v>
       </c>
@@ -11948,7 +11963,7 @@
       <c r="AF329" s="19"/>
       <c r="AG329" s="19"/>
     </row>
-    <row r="330" spans="1:33" hidden="1">
+    <row r="330" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
         <v>473</v>
       </c>
@@ -11986,7 +12001,7 @@
       <c r="AF330" s="19"/>
       <c r="AG330" s="19"/>
     </row>
-    <row r="331" spans="1:33">
+    <row r="331" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
         <v>474</v>
       </c>
@@ -11997,7 +12012,7 @@
         <v>475</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G331" s="19"/>
       <c r="H331" s="19"/>
@@ -12027,7 +12042,7 @@
       <c r="AF331" s="19"/>
       <c r="AG331" s="19"/>
     </row>
-    <row r="332" spans="1:33" s="14" customFormat="1">
+    <row r="332" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A332" s="13" t="s">
         <v>476</v>
       </c>
@@ -12038,7 +12053,7 @@
         <v>477</v>
       </c>
       <c r="D332" s="15" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E332" s="15"/>
       <c r="F332" s="15"/>
@@ -12070,7 +12085,7 @@
       <c r="AF332" s="20"/>
       <c r="AG332" s="20"/>
     </row>
-    <row r="333" spans="1:33" customFormat="1" hidden="1">
+    <row r="333" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
         <v>478</v>
       </c>
@@ -12111,7 +12126,7 @@
       <c r="AF333" s="20"/>
       <c r="AG333" s="20"/>
     </row>
-    <row r="334" spans="1:33" customFormat="1">
+    <row r="334" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
         <v>479</v>
       </c>
@@ -12122,7 +12137,7 @@
         <v>480</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E334" s="15"/>
       <c r="F334" s="15"/>
@@ -12154,7 +12169,7 @@
       <c r="AF334" s="20"/>
       <c r="AG334" s="20"/>
     </row>
-    <row r="335" spans="1:33" customFormat="1" hidden="1">
+    <row r="335" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="3" t="s">
         <v>481</v>
       </c>
@@ -12195,7 +12210,7 @@
       <c r="AF335" s="20"/>
       <c r="AG335" s="20"/>
     </row>
-    <row r="336" spans="1:33" hidden="1">
+    <row r="336" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
         <v>482</v>
       </c>
@@ -12233,7 +12248,7 @@
       <c r="AF336" s="19"/>
       <c r="AG336" s="19"/>
     </row>
-    <row r="337" spans="1:33">
+    <row r="337" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
         <v>483</v>
       </c>
@@ -12274,7 +12289,7 @@
       <c r="AF337" s="19"/>
       <c r="AG337" s="19"/>
     </row>
-    <row r="338" spans="1:33">
+    <row r="338" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
         <v>485</v>
       </c>
@@ -12312,7 +12327,7 @@
       <c r="AF338" s="19"/>
       <c r="AG338" s="19"/>
     </row>
-    <row r="339" spans="1:33" customFormat="1">
+    <row r="339" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A339" s="3" t="s">
         <v>487</v>
       </c>
@@ -12353,7 +12368,7 @@
       <c r="AF339" s="20"/>
       <c r="AG339" s="20"/>
     </row>
-    <row r="340" spans="1:33" customFormat="1" hidden="1">
+    <row r="340" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="3" t="s">
         <v>489</v>
       </c>
@@ -12394,7 +12409,7 @@
       <c r="AF340" s="20"/>
       <c r="AG340" s="20"/>
     </row>
-    <row r="341" spans="1:33" customFormat="1" hidden="1">
+    <row r="341" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
         <v>490</v>
       </c>
@@ -12435,7 +12450,7 @@
       <c r="AF341" s="20"/>
       <c r="AG341" s="20"/>
     </row>
-    <row r="342" spans="1:33" customFormat="1">
+    <row r="342" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
         <v>491</v>
       </c>
@@ -12478,7 +12493,7 @@
       <c r="AF342" s="20"/>
       <c r="AG342" s="20"/>
     </row>
-    <row r="343" spans="1:33" customFormat="1">
+    <row r="343" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A343" s="3" t="s">
         <v>493</v>
       </c>
@@ -12489,7 +12504,7 @@
         <v>494</v>
       </c>
       <c r="D343" s="25" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E343" s="25"/>
       <c r="F343" s="25"/>
@@ -12521,7 +12536,7 @@
       <c r="AF343" s="20"/>
       <c r="AG343" s="20"/>
     </row>
-    <row r="344" spans="1:33" customFormat="1" hidden="1">
+    <row r="344" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" s="3" t="s">
         <v>495</v>
       </c>
@@ -12562,7 +12577,7 @@
       <c r="AF344" s="20"/>
       <c r="AG344" s="20"/>
     </row>
-    <row r="345" spans="1:33" hidden="1">
+    <row r="345" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
         <v>496</v>
       </c>
@@ -12603,7 +12618,7 @@
       <c r="AF345" s="19"/>
       <c r="AG345" s="19"/>
     </row>
-    <row r="346" spans="1:33" customFormat="1">
+    <row r="346" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A346" s="3" t="s">
         <v>497</v>
       </c>
@@ -12614,7 +12629,7 @@
         <v>498</v>
       </c>
       <c r="D346" s="25" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E346" s="25"/>
       <c r="F346" s="25"/>
@@ -12646,7 +12661,7 @@
       <c r="AF346" s="20"/>
       <c r="AG346" s="20"/>
     </row>
-    <row r="347" spans="1:33" customFormat="1" hidden="1">
+    <row r="347" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" s="3" t="s">
         <v>499</v>
       </c>
@@ -12687,7 +12702,7 @@
       <c r="AF347" s="20"/>
       <c r="AG347" s="20"/>
     </row>
-    <row r="348" spans="1:33">
+    <row r="348" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
         <v>500</v>
       </c>
@@ -12730,7 +12745,7 @@
       <c r="AF348" s="19"/>
       <c r="AG348" s="19"/>
     </row>
-    <row r="349" spans="1:33" customFormat="1">
+    <row r="349" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A349" s="3" t="s">
         <v>502</v>
       </c>
@@ -12741,7 +12756,7 @@
         <v>503</v>
       </c>
       <c r="D349" s="25" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E349" s="25"/>
       <c r="F349" s="25"/>
@@ -12773,7 +12788,7 @@
       <c r="AF349" s="20"/>
       <c r="AG349" s="20"/>
     </row>
-    <row r="350" spans="1:33" customFormat="1" hidden="1">
+    <row r="350" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="3" t="s">
         <v>504</v>
       </c>
@@ -12814,7 +12829,7 @@
       <c r="AF350" s="20"/>
       <c r="AG350" s="20"/>
     </row>
-    <row r="351" spans="1:33" hidden="1">
+    <row r="351" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
         <v>505</v>
       </c>
@@ -12855,7 +12870,7 @@
       <c r="AF351" s="19"/>
       <c r="AG351" s="19"/>
     </row>
-    <row r="352" spans="1:33" customFormat="1">
+    <row r="352" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A352" s="3" t="s">
         <v>506</v>
       </c>
@@ -12866,7 +12881,7 @@
         <v>507</v>
       </c>
       <c r="D352" s="25" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E352" s="25"/>
       <c r="F352" s="25"/>
@@ -12898,7 +12913,7 @@
       <c r="AF352" s="20"/>
       <c r="AG352" s="20"/>
     </row>
-    <row r="353" spans="1:33">
+    <row r="353" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
         <v>508</v>
       </c>
@@ -12936,7 +12951,7 @@
       <c r="AF353" s="19"/>
       <c r="AG353" s="19"/>
     </row>
-    <row r="354" spans="1:33" customFormat="1" hidden="1">
+    <row r="354" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="3" t="s">
         <v>510</v>
       </c>
@@ -12977,7 +12992,7 @@
       <c r="AF354" s="20"/>
       <c r="AG354" s="20"/>
     </row>
-    <row r="355" spans="1:33" hidden="1">
+    <row r="355" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
         <v>511</v>
       </c>
@@ -13015,7 +13030,7 @@
       <c r="AF355" s="19"/>
       <c r="AG355" s="19"/>
     </row>
-    <row r="356" spans="1:33">
+    <row r="356" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
         <v>512</v>
       </c>
@@ -13053,7 +13068,7 @@
       <c r="AF356" s="19"/>
       <c r="AG356" s="19"/>
     </row>
-    <row r="357" spans="1:33" customFormat="1">
+    <row r="357" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A357" s="3" t="s">
         <v>513</v>
       </c>
@@ -13064,7 +13079,7 @@
         <v>514</v>
       </c>
       <c r="D357" s="25" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E357" s="25"/>
       <c r="F357" s="25"/>
@@ -13096,7 +13111,7 @@
       <c r="AF357" s="20"/>
       <c r="AG357" s="20"/>
     </row>
-    <row r="358" spans="1:33" customFormat="1" hidden="1">
+    <row r="358" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="3" t="s">
         <v>515</v>
       </c>
@@ -13137,7 +13152,7 @@
       <c r="AF358" s="20"/>
       <c r="AG358" s="20"/>
     </row>
-    <row r="359" spans="1:33" customFormat="1">
+    <row r="359" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A359" s="3" t="s">
         <v>516</v>
       </c>
@@ -13180,7 +13195,7 @@
       <c r="AF359" s="20"/>
       <c r="AG359" s="20"/>
     </row>
-    <row r="360" spans="1:33" customFormat="1" hidden="1">
+    <row r="360" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="3" t="s">
         <v>518</v>
       </c>
@@ -13221,7 +13236,7 @@
       <c r="AF360" s="20"/>
       <c r="AG360" s="20"/>
     </row>
-    <row r="361" spans="1:33" customFormat="1">
+    <row r="361" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A361" s="3" t="s">
         <v>519</v>
       </c>
@@ -13264,7 +13279,7 @@
       <c r="AF361" s="20"/>
       <c r="AG361" s="20"/>
     </row>
-    <row r="362" spans="1:33" hidden="1">
+    <row r="362" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
         <v>521</v>
       </c>
@@ -13302,7 +13317,7 @@
       <c r="AF362" s="19"/>
       <c r="AG362" s="19"/>
     </row>
-    <row r="363" spans="1:33" hidden="1">
+    <row r="363" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
         <v>522</v>
       </c>
@@ -13343,7 +13358,7 @@
       <c r="AF363" s="19"/>
       <c r="AG363" s="19"/>
     </row>
-    <row r="364" spans="1:33" hidden="1">
+    <row r="364" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
         <v>523</v>
       </c>
@@ -13384,7 +13399,7 @@
       <c r="AF364" s="19"/>
       <c r="AG364" s="19"/>
     </row>
-    <row r="365" spans="1:33" hidden="1">
+    <row r="365" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
         <v>524</v>
       </c>
@@ -13425,7 +13440,7 @@
       <c r="AF365" s="19"/>
       <c r="AG365" s="19"/>
     </row>
-    <row r="366" spans="1:33" hidden="1">
+    <row r="366" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
         <v>525</v>
       </c>
@@ -13466,7 +13481,7 @@
       <c r="AF366" s="19"/>
       <c r="AG366" s="19"/>
     </row>
-    <row r="367" spans="1:33" hidden="1">
+    <row r="367" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
         <v>526</v>
       </c>
@@ -13507,7 +13522,7 @@
       <c r="AF367" s="19"/>
       <c r="AG367" s="19"/>
     </row>
-    <row r="368" spans="1:33" hidden="1">
+    <row r="368" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
         <v>527</v>
       </c>
@@ -13548,7 +13563,7 @@
       <c r="AF368" s="19"/>
       <c r="AG368" s="19"/>
     </row>
-    <row r="369" spans="1:33" hidden="1">
+    <row r="369" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
         <v>528</v>
       </c>
@@ -13589,7 +13604,7 @@
       <c r="AF369" s="19"/>
       <c r="AG369" s="19"/>
     </row>
-    <row r="370" spans="1:33" hidden="1">
+    <row r="370" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
         <v>529</v>
       </c>
@@ -13630,7 +13645,7 @@
       <c r="AF370" s="19"/>
       <c r="AG370" s="19"/>
     </row>
-    <row r="371" spans="1:33" hidden="1">
+    <row r="371" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
         <v>530</v>
       </c>
@@ -13671,7 +13686,7 @@
       <c r="AF371" s="19"/>
       <c r="AG371" s="19"/>
     </row>
-    <row r="372" spans="1:33" hidden="1">
+    <row r="372" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
         <v>531</v>
       </c>
@@ -13712,7 +13727,7 @@
       <c r="AF372" s="19"/>
       <c r="AG372" s="19"/>
     </row>
-    <row r="373" spans="1:33" hidden="1">
+    <row r="373" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
         <v>532</v>
       </c>
@@ -13753,7 +13768,7 @@
       <c r="AF373" s="19"/>
       <c r="AG373" s="19"/>
     </row>
-    <row r="374" spans="1:33" hidden="1">
+    <row r="374" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
         <v>533</v>
       </c>
@@ -13794,7 +13809,7 @@
       <c r="AF374" s="19"/>
       <c r="AG374" s="19"/>
     </row>
-    <row r="375" spans="1:33" customFormat="1" hidden="1">
+    <row r="375" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" s="3" t="s">
         <v>534</v>
       </c>
@@ -13835,7 +13850,7 @@
       <c r="AF375" s="20"/>
       <c r="AG375" s="20"/>
     </row>
-    <row r="376" spans="1:33" hidden="1">
+    <row r="376" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
         <v>535</v>
       </c>
@@ -13876,7 +13891,7 @@
       <c r="AF376" s="19"/>
       <c r="AG376" s="19"/>
     </row>
-    <row r="377" spans="1:33" customFormat="1">
+    <row r="377" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A377" s="3" t="s">
         <v>536</v>
       </c>
@@ -13887,7 +13902,7 @@
         <v>537</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
@@ -13919,7 +13934,7 @@
       <c r="AF377" s="20"/>
       <c r="AG377" s="20"/>
     </row>
-    <row r="378" spans="1:33" customFormat="1" hidden="1">
+    <row r="378" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378" s="3" t="s">
         <v>538</v>
       </c>
@@ -13960,7 +13975,7 @@
       <c r="AF378" s="20"/>
       <c r="AG378" s="20"/>
     </row>
-    <row r="379" spans="1:33" customFormat="1">
+    <row r="379" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A379" s="3" t="s">
         <v>539</v>
       </c>
@@ -13971,7 +13986,7 @@
         <v>540</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
@@ -14003,7 +14018,7 @@
       <c r="AF379" s="20"/>
       <c r="AG379" s="20"/>
     </row>
-    <row r="380" spans="1:33" customFormat="1" hidden="1">
+    <row r="380" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380" s="3" t="s">
         <v>541</v>
       </c>
@@ -14044,7 +14059,7 @@
       <c r="AF380" s="20"/>
       <c r="AG380" s="20"/>
     </row>
-    <row r="381" spans="1:33" customFormat="1">
+    <row r="381" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A381" s="3" t="s">
         <v>542</v>
       </c>
@@ -14055,7 +14070,7 @@
         <v>543</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
@@ -14087,7 +14102,7 @@
       <c r="AF381" s="20"/>
       <c r="AG381" s="20"/>
     </row>
-    <row r="382" spans="1:33" customFormat="1" hidden="1">
+    <row r="382" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
         <v>544</v>
       </c>
@@ -14128,7 +14143,7 @@
       <c r="AF382" s="20"/>
       <c r="AG382" s="20"/>
     </row>
-    <row r="383" spans="1:33" customFormat="1">
+    <row r="383" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
         <v>545</v>
       </c>
@@ -14169,7 +14184,7 @@
       <c r="AF383" s="20"/>
       <c r="AG383" s="20"/>
     </row>
-    <row r="384" spans="1:33" customFormat="1" hidden="1">
+    <row r="384" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384" s="3" t="s">
         <v>547</v>
       </c>
@@ -14210,7 +14225,7 @@
       <c r="AF384" s="20"/>
       <c r="AG384" s="20"/>
     </row>
-    <row r="385" spans="1:33" customFormat="1" hidden="1">
+    <row r="385" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
         <v>548</v>
       </c>
@@ -14251,7 +14266,7 @@
       <c r="AF385" s="20"/>
       <c r="AG385" s="20"/>
     </row>
-    <row r="386" spans="1:33" hidden="1">
+    <row r="386" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
         <v>549</v>
       </c>
@@ -14289,7 +14304,7 @@
       <c r="AF386" s="19"/>
       <c r="AG386" s="19"/>
     </row>
-    <row r="387" spans="1:33" customFormat="1">
+    <row r="387" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A387" s="3" t="s">
         <v>550</v>
       </c>
@@ -14330,7 +14345,7 @@
       <c r="AF387" s="20"/>
       <c r="AG387" s="20"/>
     </row>
-    <row r="388" spans="1:33" customFormat="1">
+    <row r="388" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
         <v>552</v>
       </c>
@@ -14371,7 +14386,7 @@
       <c r="AF388" s="20"/>
       <c r="AG388" s="20"/>
     </row>
-    <row r="389" spans="1:33" customFormat="1" hidden="1">
+    <row r="389" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" s="3" t="s">
         <v>554</v>
       </c>
@@ -14412,7 +14427,7 @@
       <c r="AF389" s="20"/>
       <c r="AG389" s="20"/>
     </row>
-    <row r="390" spans="1:33" customFormat="1" hidden="1">
+    <row r="390" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
         <v>555</v>
       </c>
@@ -14453,7 +14468,7 @@
       <c r="AF390" s="20"/>
       <c r="AG390" s="20"/>
     </row>
-    <row r="391" spans="1:33" customFormat="1">
+    <row r="391" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
         <v>556</v>
       </c>
@@ -14494,7 +14509,7 @@
       <c r="AF391" s="20"/>
       <c r="AG391" s="20"/>
     </row>
-    <row r="392" spans="1:33" customFormat="1" hidden="1">
+    <row r="392" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
         <v>558</v>
       </c>
@@ -14535,7 +14550,7 @@
       <c r="AF392" s="20"/>
       <c r="AG392" s="20"/>
     </row>
-    <row r="393" spans="1:33">
+    <row r="393" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
         <v>559</v>
       </c>
@@ -14573,7 +14588,7 @@
       <c r="AF393" s="19"/>
       <c r="AG393" s="19"/>
     </row>
-    <row r="394" spans="1:33" customFormat="1">
+    <row r="394" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
         <v>561</v>
       </c>
@@ -14614,7 +14629,7 @@
       <c r="AF394" s="20"/>
       <c r="AG394" s="20"/>
     </row>
-    <row r="395" spans="1:33" customFormat="1">
+    <row r="395" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A395" s="3" t="s">
         <v>562</v>
       </c>
@@ -14625,7 +14640,7 @@
         <v>563</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
@@ -14657,7 +14672,7 @@
       <c r="AF395" s="20"/>
       <c r="AG395" s="20"/>
     </row>
-    <row r="396" spans="1:33" customFormat="1" hidden="1">
+    <row r="396" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396" s="3" t="s">
         <v>564</v>
       </c>
@@ -14698,7 +14713,7 @@
       <c r="AF396" s="20"/>
       <c r="AG396" s="20"/>
     </row>
-    <row r="397" spans="1:33" customFormat="1">
+    <row r="397" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A397" s="3" t="s">
         <v>565</v>
       </c>
@@ -14709,7 +14724,7 @@
         <v>566</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
@@ -14741,7 +14756,7 @@
       <c r="AF397" s="20"/>
       <c r="AG397" s="20"/>
     </row>
-    <row r="398" spans="1:33" customFormat="1" hidden="1">
+    <row r="398" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
         <v>567</v>
       </c>
@@ -14782,7 +14797,7 @@
       <c r="AF398" s="20"/>
       <c r="AG398" s="20"/>
     </row>
-    <row r="399" spans="1:33" customFormat="1">
+    <row r="399" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
         <v>568</v>
       </c>
@@ -14823,7 +14838,7 @@
       <c r="AF399" s="20"/>
       <c r="AG399" s="20"/>
     </row>
-    <row r="400" spans="1:33" hidden="1">
+    <row r="400" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400" s="2" t="s">
         <v>569</v>
       </c>
@@ -14861,7 +14876,7 @@
       <c r="AF400" s="19"/>
       <c r="AG400" s="19"/>
     </row>
-    <row r="401" spans="1:33">
+    <row r="401" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A401" s="2" t="s">
         <v>570</v>
       </c>
@@ -14899,7 +14914,7 @@
       <c r="AF401" s="19"/>
       <c r="AG401" s="19"/>
     </row>
-    <row r="402" spans="1:33" customFormat="1" hidden="1">
+    <row r="402" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402" s="3" t="s">
         <v>572</v>
       </c>
@@ -14940,7 +14955,7 @@
       <c r="AF402" s="20"/>
       <c r="AG402" s="20"/>
     </row>
-    <row r="403" spans="1:33" customFormat="1">
+    <row r="403" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A403" s="3" t="s">
         <v>573</v>
       </c>
@@ -14951,7 +14966,7 @@
         <v>574</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
@@ -14983,7 +14998,7 @@
       <c r="AF403" s="20"/>
       <c r="AG403" s="20"/>
     </row>
-    <row r="404" spans="1:33" customFormat="1" hidden="1">
+    <row r="404" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" s="3" t="s">
         <v>575</v>
       </c>
@@ -15024,7 +15039,7 @@
       <c r="AF404" s="20"/>
       <c r="AG404" s="20"/>
     </row>
-    <row r="405" spans="1:33" hidden="1">
+    <row r="405" spans="1:33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405" s="2" t="s">
         <v>576</v>
       </c>
@@ -15062,7 +15077,7 @@
       <c r="AF405" s="19"/>
       <c r="AG405" s="19"/>
     </row>
-    <row r="406" spans="1:33">
+    <row r="406" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A406" s="2" t="s">
         <v>577</v>
       </c>
@@ -15103,7 +15118,7 @@
       <c r="AF406" s="19"/>
       <c r="AG406" s="19"/>
     </row>
-    <row r="407" spans="1:33" customFormat="1">
+    <row r="407" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A407" s="3" t="s">
         <v>578</v>
       </c>
@@ -15114,7 +15129,7 @@
         <v>579</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
@@ -15146,7 +15161,7 @@
       <c r="AF407" s="20"/>
       <c r="AG407" s="20"/>
     </row>
-    <row r="408" spans="1:33" customFormat="1" hidden="1">
+    <row r="408" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408" s="3" t="s">
         <v>580</v>
       </c>
@@ -15187,7 +15202,7 @@
       <c r="AF408" s="20"/>
       <c r="AG408" s="20"/>
     </row>
-    <row r="409" spans="1:33" customFormat="1" hidden="1">
+    <row r="409" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409" s="3" t="s">
         <v>581</v>
       </c>
@@ -15215,7 +15230,7 @@
       <c r="S409" s="20"/>
       <c r="T409" s="20"/>
     </row>
-    <row r="410" spans="1:33" customFormat="1">
+    <row r="410" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A410" s="3" t="s">
         <v>582</v>
       </c>
@@ -15226,7 +15241,7 @@
         <v>583</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
@@ -15245,7 +15260,7 @@
       <c r="S410" s="20"/>
       <c r="T410" s="20"/>
     </row>
-    <row r="411" spans="1:33" customFormat="1" hidden="1">
+    <row r="411" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411" s="3" t="s">
         <v>584</v>
       </c>
@@ -15273,7 +15288,7 @@
       <c r="S411" s="20"/>
       <c r="T411" s="20"/>
     </row>
-    <row r="412" spans="1:33" customFormat="1" hidden="1">
+    <row r="412" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412" s="3" t="s">
         <v>585</v>
       </c>
@@ -15301,7 +15316,7 @@
       <c r="S412" s="20"/>
       <c r="T412" s="20"/>
     </row>
-    <row r="413" spans="1:33" customFormat="1" hidden="1">
+    <row r="413" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413" s="3" t="s">
         <v>586</v>
       </c>
@@ -15329,7 +15344,7 @@
       <c r="S413" s="20"/>
       <c r="T413" s="20"/>
     </row>
-    <row r="414" spans="1:33" customFormat="1" hidden="1">
+    <row r="414" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414" s="3" t="s">
         <v>587</v>
       </c>
@@ -15357,7 +15372,7 @@
       <c r="S414" s="20"/>
       <c r="T414" s="20"/>
     </row>
-    <row r="415" spans="1:33" customFormat="1" hidden="1">
+    <row r="415" spans="1:33" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
         <v>588</v>
       </c>
@@ -15385,7 +15400,7 @@
       <c r="S415" s="20"/>
       <c r="T415" s="20"/>
     </row>
-    <row r="416" spans="1:33" customFormat="1">
+    <row r="416" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A416" s="3" t="s">
         <v>589</v>
       </c>
@@ -15396,7 +15411,7 @@
         <v>590</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
@@ -15415,7 +15430,7 @@
       <c r="S416" s="20"/>
       <c r="T416" s="20"/>
     </row>
-    <row r="417" spans="1:20" hidden="1">
+    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417" s="2" t="s">
         <v>591</v>
       </c>
@@ -15440,7 +15455,7 @@
       <c r="S417" s="19"/>
       <c r="T417" s="19"/>
     </row>
-    <row r="418" spans="1:20" customFormat="1">
+    <row r="418" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
         <v>592</v>
       </c>
@@ -15451,7 +15466,7 @@
         <v>593</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E418" s="7"/>
       <c r="F418" s="7"/>
@@ -15470,7 +15485,7 @@
       <c r="S418" s="20"/>
       <c r="T418" s="20"/>
     </row>
-    <row r="419" spans="1:20" customFormat="1" hidden="1">
+    <row r="419" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" s="3" t="s">
         <v>594</v>
       </c>
@@ -15498,7 +15513,7 @@
       <c r="S419" s="20"/>
       <c r="T419" s="20"/>
     </row>
-    <row r="420" spans="1:20" customFormat="1">
+    <row r="420" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A420" s="3" t="s">
         <v>595</v>
       </c>
@@ -15509,7 +15524,7 @@
         <v>70</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
@@ -15528,7 +15543,7 @@
       <c r="S420" s="20"/>
       <c r="T420" s="20"/>
     </row>
-    <row r="421" spans="1:20">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A421" s="2" t="s">
         <v>596</v>
       </c>
@@ -15539,7 +15554,7 @@
         <v>597</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G421" s="19"/>
       <c r="H421" s="19"/>
@@ -15556,7 +15571,7 @@
       <c r="S421" s="19"/>
       <c r="T421" s="19"/>
     </row>
-    <row r="422" spans="1:20" customFormat="1" hidden="1">
+    <row r="422" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422" s="3" t="s">
         <v>598</v>
       </c>
@@ -15584,7 +15599,7 @@
       <c r="S422" s="20"/>
       <c r="T422" s="20"/>
     </row>
-    <row r="423" spans="1:20" customFormat="1" hidden="1">
+    <row r="423" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423" s="3" t="s">
         <v>599</v>
       </c>
@@ -15612,7 +15627,7 @@
       <c r="S423" s="20"/>
       <c r="T423" s="20"/>
     </row>
-    <row r="424" spans="1:20" customFormat="1" hidden="1">
+    <row r="424" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
         <v>600</v>
       </c>
@@ -15640,7 +15655,7 @@
       <c r="S424" s="20"/>
       <c r="T424" s="20"/>
     </row>
-    <row r="425" spans="1:20" customFormat="1" hidden="1">
+    <row r="425" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425" s="3" t="s">
         <v>601</v>
       </c>
@@ -15668,7 +15683,7 @@
       <c r="S425" s="20"/>
       <c r="T425" s="20"/>
     </row>
-    <row r="426" spans="1:20" customFormat="1">
+    <row r="426" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
         <v>602</v>
       </c>
@@ -15698,7 +15713,7 @@
       <c r="S426" s="20"/>
       <c r="T426" s="20"/>
     </row>
-    <row r="427" spans="1:20" customFormat="1" hidden="1">
+    <row r="427" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427" s="3" t="s">
         <v>604</v>
       </c>
@@ -15726,7 +15741,7 @@
       <c r="S427" s="20"/>
       <c r="T427" s="20"/>
     </row>
-    <row r="428" spans="1:20" customFormat="1" hidden="1">
+    <row r="428" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
         <v>605</v>
       </c>
@@ -15754,7 +15769,7 @@
       <c r="S428" s="20"/>
       <c r="T428" s="20"/>
     </row>
-    <row r="429" spans="1:20" customFormat="1">
+    <row r="429" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
         <v>606</v>
       </c>
@@ -15774,7 +15789,7 @@
       <c r="I429" s="5"/>
       <c r="J429" s="5"/>
     </row>
-    <row r="430" spans="1:20" customFormat="1" hidden="1">
+    <row r="430" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
         <v>608</v>
       </c>
@@ -15792,7 +15807,7 @@
       <c r="I430" s="5"/>
       <c r="J430" s="5"/>
     </row>
-    <row r="431" spans="1:20" customFormat="1" hidden="1">
+    <row r="431" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431" s="3" t="s">
         <v>609</v>
       </c>
@@ -15810,7 +15825,7 @@
       <c r="I431" s="5"/>
       <c r="J431" s="5"/>
     </row>
-    <row r="432" spans="1:20" customFormat="1">
+    <row r="432" spans="1:20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
         <v>610</v>
       </c>
@@ -15830,7 +15845,7 @@
       <c r="I432" s="5"/>
       <c r="J432" s="5"/>
     </row>
-    <row r="433" spans="1:10" customFormat="1">
+    <row r="433" spans="1:10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A433" s="3" t="s">
         <v>612</v>
       </c>
@@ -15850,7 +15865,7 @@
       <c r="I433" s="5"/>
       <c r="J433" s="5"/>
     </row>
-    <row r="434" spans="1:10" customFormat="1" hidden="1">
+    <row r="434" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
         <v>614</v>
       </c>
@@ -15868,7 +15883,7 @@
       <c r="I434" s="5"/>
       <c r="J434" s="5"/>
     </row>
-    <row r="435" spans="1:10" customFormat="1">
+    <row r="435" spans="1:10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
         <v>615</v>
       </c>
@@ -15886,7 +15901,7 @@
       <c r="I435" s="5"/>
       <c r="J435" s="5"/>
     </row>
-    <row r="436" spans="1:10" hidden="1">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436" s="2" t="s">
         <v>617</v>
       </c>
@@ -15899,7 +15914,7 @@
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
     </row>
-    <row r="437" spans="1:10" hidden="1">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" s="2" t="s">
         <v>618</v>
       </c>
@@ -15912,7 +15927,7 @@
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
     </row>
-    <row r="438" spans="1:10" hidden="1">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438" s="2" t="s">
         <v>619</v>
       </c>
@@ -15925,7 +15940,7 @@
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
     </row>
-    <row r="439" spans="1:10" customFormat="1" hidden="1">
+    <row r="439" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" s="3" t="s">
         <v>620</v>
       </c>
@@ -15943,7 +15958,7 @@
       <c r="I439" s="5"/>
       <c r="J439" s="5"/>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A440" s="2" t="s">
         <v>621</v>
       </c>
@@ -15959,7 +15974,7 @@
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
     </row>
-    <row r="441" spans="1:10" customFormat="1" hidden="1">
+    <row r="441" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" s="3" t="s">
         <v>623</v>
       </c>
@@ -15977,7 +15992,7 @@
       <c r="I441" s="5"/>
       <c r="J441" s="5"/>
     </row>
-    <row r="442" spans="1:10" customFormat="1" hidden="1">
+    <row r="442" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" s="3" t="s">
         <v>624</v>
       </c>
@@ -15995,7 +16010,7 @@
       <c r="I442" s="5"/>
       <c r="J442" s="5"/>
     </row>
-    <row r="443" spans="1:10" customFormat="1" hidden="1">
+    <row r="443" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" s="3" t="s">
         <v>625</v>
       </c>
@@ -16013,7 +16028,7 @@
       <c r="I443" s="5"/>
       <c r="J443" s="5"/>
     </row>
-    <row r="444" spans="1:10" customFormat="1" hidden="1">
+    <row r="444" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="3" t="s">
         <v>626</v>
       </c>
@@ -16030,7 +16045,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="5"/>
     </row>
-    <row r="445" spans="1:10" customFormat="1" hidden="1">
+    <row r="445" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445" s="3" t="s">
         <v>627</v>
       </c>
@@ -16047,7 +16062,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="5"/>
     </row>
-    <row r="446" spans="1:10" customFormat="1" hidden="1">
+    <row r="446" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" s="3" t="s">
         <v>628</v>
       </c>
@@ -16063,7 +16078,7 @@
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
     </row>
-    <row r="447" spans="1:10" customFormat="1" hidden="1">
+    <row r="447" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" s="3" t="s">
         <v>629</v>
       </c>
@@ -16079,7 +16094,7 @@
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
     </row>
-    <row r="448" spans="1:10" customFormat="1" ht="14.25" hidden="1">
+    <row r="448" spans="1:10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>630</v>
       </c>
@@ -16093,7 +16108,7 @@
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
     </row>
-    <row r="449" spans="1:6" customFormat="1" ht="14.25" hidden="1">
+    <row r="449" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>632</v>
       </c>
@@ -16107,7 +16122,7 @@
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
     </row>
-    <row r="450" spans="1:6" customFormat="1" ht="14.25" hidden="1">
+    <row r="450" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>634</v>
       </c>
@@ -16121,7 +16136,7 @@
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
     </row>
-    <row r="451" spans="1:6" customFormat="1" ht="14.25" hidden="1">
+    <row r="451" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>636</v>
       </c>
@@ -16135,7 +16150,7 @@
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
     </row>
-    <row r="452" spans="1:6" customFormat="1" ht="14.25" hidden="1">
+    <row r="452" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>636</v>
       </c>
@@ -16149,7 +16164,7 @@
       <c r="E452" s="5"/>
       <c r="F452" s="5"/>
     </row>
-    <row r="453" spans="1:6" customFormat="1" ht="14.25" hidden="1">
+    <row r="453" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>636</v>
       </c>
@@ -16164,7 +16179,7 @@
       <c r="F453" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E453">
+  <autoFilter ref="A1:E453" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <customFilters and="1">
         <customFilter operator="notEqual" val="*a*"/>
